--- a/data/nzd0249/nzd0249.xlsx
+++ b/data/nzd0249/nzd0249.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R410"/>
+  <dimension ref="A1:R413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23936,6 +23936,186 @@
         </is>
       </c>
     </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-23 21:54:07+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>324.16</v>
+      </c>
+      <c r="C411" t="n">
+        <v>317.5833333333333</v>
+      </c>
+      <c r="D411" t="n">
+        <v>318.58</v>
+      </c>
+      <c r="E411" t="n">
+        <v>316.81</v>
+      </c>
+      <c r="F411" t="n">
+        <v>319</v>
+      </c>
+      <c r="G411" t="n">
+        <v>327.4444444444445</v>
+      </c>
+      <c r="H411" t="n">
+        <v>338.15</v>
+      </c>
+      <c r="I411" t="n">
+        <v>333.0228571428572</v>
+      </c>
+      <c r="J411" t="n">
+        <v>336.95</v>
+      </c>
+      <c r="K411" t="n">
+        <v>333.2</v>
+      </c>
+      <c r="L411" t="n">
+        <v>323.67</v>
+      </c>
+      <c r="M411" t="n">
+        <v>328.71</v>
+      </c>
+      <c r="N411" t="n">
+        <v>331.83</v>
+      </c>
+      <c r="O411" t="n">
+        <v>346.0233333333333</v>
+      </c>
+      <c r="P411" t="n">
+        <v>336.375</v>
+      </c>
+      <c r="Q411" t="n">
+        <v>314.4566666666666</v>
+      </c>
+      <c r="R411" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-09 21:54:06+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>357.86</v>
+      </c>
+      <c r="C412" t="n">
+        <v>348.6033333333333</v>
+      </c>
+      <c r="D412" t="n">
+        <v>335.35</v>
+      </c>
+      <c r="E412" t="n">
+        <v>336.51</v>
+      </c>
+      <c r="F412" t="n">
+        <v>350.42</v>
+      </c>
+      <c r="G412" t="n">
+        <v>350.1877777777778</v>
+      </c>
+      <c r="H412" t="n">
+        <v>339.49</v>
+      </c>
+      <c r="I412" t="n">
+        <v>336.8257142857143</v>
+      </c>
+      <c r="J412" t="n">
+        <v>324.81</v>
+      </c>
+      <c r="K412" t="n">
+        <v>313.22</v>
+      </c>
+      <c r="L412" t="n">
+        <v>304.57</v>
+      </c>
+      <c r="M412" t="n">
+        <v>301.95</v>
+      </c>
+      <c r="N412" t="n">
+        <v>318</v>
+      </c>
+      <c r="O412" t="n">
+        <v>319.8633333333333</v>
+      </c>
+      <c r="P412" t="n">
+        <v>305.855</v>
+      </c>
+      <c r="Q412" t="n">
+        <v>294.0166666666667</v>
+      </c>
+      <c r="R412" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:53:31+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>335.8336363636364</v>
+      </c>
+      <c r="C413" t="n">
+        <v>332.1266666666667</v>
+      </c>
+      <c r="D413" t="n">
+        <v>329.0536363636364</v>
+      </c>
+      <c r="E413" t="n">
+        <v>327.59</v>
+      </c>
+      <c r="F413" t="n">
+        <v>335.8736363636364</v>
+      </c>
+      <c r="G413" t="n">
+        <v>334.9722222222222</v>
+      </c>
+      <c r="H413" t="n">
+        <v>341.29</v>
+      </c>
+      <c r="I413" t="n">
+        <v>339.6171428571428</v>
+      </c>
+      <c r="J413" t="n">
+        <v>326.37</v>
+      </c>
+      <c r="K413" t="n">
+        <v>318.41</v>
+      </c>
+      <c r="L413" t="n">
+        <v>307.22</v>
+      </c>
+      <c r="M413" t="n">
+        <v>302.04</v>
+      </c>
+      <c r="N413" t="n">
+        <v>314.67</v>
+      </c>
+      <c r="O413" t="n">
+        <v>336.6166666666667</v>
+      </c>
+      <c r="P413" t="n">
+        <v>326.225</v>
+      </c>
+      <c r="Q413" t="n">
+        <v>305.1333333333333</v>
+      </c>
+      <c r="R413" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23947,7 +24127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B412"/>
+  <dimension ref="A1:B415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28075,6 +28255,36 @@
       </c>
       <c r="B412" t="n">
         <v>-0.45</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>2024-12-23 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>2025-02-09 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>-0.53</v>
       </c>
     </row>
   </sheetData>
@@ -28243,28 +28453,28 @@
         <v>0.0653</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.06336053790916546</v>
+        <v>-0.01444059274542466</v>
       </c>
       <c r="J2" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K2" t="n">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000993597752510067</v>
+        <v>5.076430289085998e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>11.4257410053747</v>
+        <v>11.58861952308816</v>
       </c>
       <c r="N2" t="n">
-        <v>215.9260605225179</v>
+        <v>222.2001474339886</v>
       </c>
       <c r="O2" t="n">
-        <v>14.69442276928624</v>
+        <v>14.90637942070403</v>
       </c>
       <c r="P2" t="n">
-        <v>313.1110392075034</v>
+        <v>312.6439393771309</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -28320,28 +28530,28 @@
         <v>0.0682</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005571702375327256</v>
+        <v>0.04090273119783196</v>
       </c>
       <c r="J3" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K3" t="n">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L3" t="n">
-        <v>1.079686833260762e-05</v>
+        <v>0.0005751582310489223</v>
       </c>
       <c r="M3" t="n">
-        <v>9.762106221663997</v>
+        <v>9.857151353559667</v>
       </c>
       <c r="N3" t="n">
-        <v>154.7324912543855</v>
+        <v>158.194169664819</v>
       </c>
       <c r="O3" t="n">
-        <v>12.43915154881496</v>
+        <v>12.57752637305202</v>
       </c>
       <c r="P3" t="n">
-        <v>312.2781338196397</v>
+        <v>311.9428106401887</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -28391,28 +28601,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.2112493629841682</v>
+        <v>0.231535020307134</v>
       </c>
       <c r="J4" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K4" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01567658021374185</v>
+        <v>0.0189310032812483</v>
       </c>
       <c r="M4" t="n">
-        <v>9.349147210786885</v>
+        <v>9.36730566214422</v>
       </c>
       <c r="N4" t="n">
-        <v>144.6138145886847</v>
+        <v>144.9342636258608</v>
       </c>
       <c r="O4" t="n">
-        <v>12.02554841114054</v>
+        <v>12.03886471499123</v>
       </c>
       <c r="P4" t="n">
-        <v>310.4481906063347</v>
+        <v>310.2491578104764</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -28468,28 +28678,28 @@
         <v>0.0546</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1201302005681969</v>
+        <v>0.1356094750468027</v>
       </c>
       <c r="J5" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K5" t="n">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004476217603035293</v>
+        <v>0.005762501481938909</v>
       </c>
       <c r="M5" t="n">
-        <v>10.13151042377461</v>
+        <v>10.12160859037879</v>
       </c>
       <c r="N5" t="n">
-        <v>166.7947453259043</v>
+        <v>166.6427427054308</v>
       </c>
       <c r="O5" t="n">
-        <v>12.91490399987179</v>
+        <v>12.90901788307038</v>
       </c>
       <c r="P5" t="n">
-        <v>314.6731916554213</v>
+        <v>314.5221168482465</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -28545,28 +28755,28 @@
         <v>0.0602</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1519840354435619</v>
+        <v>0.1689721620702619</v>
       </c>
       <c r="J6" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K6" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006867482834761574</v>
+        <v>0.008530127498999396</v>
       </c>
       <c r="M6" t="n">
-        <v>10.20466194906571</v>
+        <v>10.22865808953305</v>
       </c>
       <c r="N6" t="n">
-        <v>176.5310253288142</v>
+        <v>177.2497007331483</v>
       </c>
       <c r="O6" t="n">
-        <v>13.28649785793134</v>
+        <v>13.31351571648707</v>
       </c>
       <c r="P6" t="n">
-        <v>320.9416111850453</v>
+        <v>320.778502647763</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -28622,28 +28832,28 @@
         <v>0.0495</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3509341709234801</v>
+        <v>0.3577469890972083</v>
       </c>
       <c r="J7" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K7" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03793957124595215</v>
+        <v>0.03986323154356897</v>
       </c>
       <c r="M7" t="n">
-        <v>10.01664525030786</v>
+        <v>10.00098876116886</v>
       </c>
       <c r="N7" t="n">
-        <v>166.376494512332</v>
+        <v>165.8967213288885</v>
       </c>
       <c r="O7" t="n">
-        <v>12.89870127231156</v>
+        <v>12.88009011338385</v>
       </c>
       <c r="P7" t="n">
-        <v>324.4278141795587</v>
+        <v>324.3620486505365</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -28699,28 +28909,28 @@
         <v>0.0528</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3501139398406667</v>
+        <v>0.3477096620142239</v>
       </c>
       <c r="J8" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K8" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0393086459271933</v>
+        <v>0.03947266132028793</v>
       </c>
       <c r="M8" t="n">
-        <v>9.79441648512976</v>
+        <v>9.729782096738072</v>
       </c>
       <c r="N8" t="n">
-        <v>156.3564068063321</v>
+        <v>155.157674203872</v>
       </c>
       <c r="O8" t="n">
-        <v>12.50425554786578</v>
+        <v>12.45623033681828</v>
       </c>
       <c r="P8" t="n">
-        <v>332.1964918869828</v>
+        <v>332.219744292277</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -28776,28 +28986,28 @@
         <v>0.0373</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2183103752249679</v>
+        <v>0.2127740980435253</v>
       </c>
       <c r="J9" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K9" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01450056908385999</v>
+        <v>0.01402160673111308</v>
       </c>
       <c r="M9" t="n">
-        <v>10.12141140152937</v>
+        <v>10.07061049562314</v>
       </c>
       <c r="N9" t="n">
-        <v>171.885910914002</v>
+        <v>170.6934110106575</v>
       </c>
       <c r="O9" t="n">
-        <v>13.11052672145563</v>
+        <v>13.06496884843808</v>
       </c>
       <c r="P9" t="n">
-        <v>334.3789367633884</v>
+        <v>334.4317589284064</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -28853,28 +29063,28 @@
         <v>0.0436</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1733504401544284</v>
+        <v>0.1635469611848883</v>
       </c>
       <c r="J10" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K10" t="n">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01086933682682234</v>
+        <v>0.009831148239599741</v>
       </c>
       <c r="M10" t="n">
-        <v>9.608513821094409</v>
+        <v>9.590730609519252</v>
       </c>
       <c r="N10" t="n">
-        <v>146.5276535688996</v>
+        <v>145.8799982353269</v>
       </c>
       <c r="O10" t="n">
-        <v>12.10486074140878</v>
+        <v>12.07807924445468</v>
       </c>
       <c r="P10" t="n">
-        <v>330.9589022079858</v>
+        <v>331.0519869768316</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -28930,28 +29140,28 @@
         <v>0.0432</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05373886263691576</v>
+        <v>0.05110372340349958</v>
       </c>
       <c r="J11" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K11" t="n">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0008650198036443957</v>
+        <v>0.0007940456223239911</v>
       </c>
       <c r="M11" t="n">
-        <v>10.58542943029161</v>
+        <v>10.56775113069994</v>
       </c>
       <c r="N11" t="n">
-        <v>175.9016568541934</v>
+        <v>175.1212503378708</v>
       </c>
       <c r="O11" t="n">
-        <v>13.26279219675078</v>
+        <v>13.2333385937892</v>
       </c>
       <c r="P11" t="n">
-        <v>321.8351345043925</v>
+        <v>321.8607382308523</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -29007,28 +29217,28 @@
         <v>0.0454</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09476807275373827</v>
+        <v>0.08458244850680172</v>
       </c>
       <c r="J12" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K12" t="n">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002512071047731768</v>
+        <v>0.002029632068438425</v>
       </c>
       <c r="M12" t="n">
-        <v>10.87091881380765</v>
+        <v>10.86216387174375</v>
       </c>
       <c r="N12" t="n">
-        <v>186.6841784749998</v>
+        <v>186.0939584780274</v>
       </c>
       <c r="O12" t="n">
-        <v>13.66324187281334</v>
+        <v>13.641625947006</v>
       </c>
       <c r="P12" t="n">
-        <v>315.6721860936758</v>
+        <v>315.7705270943979</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -29084,28 +29294,28 @@
         <v>0.0454</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01767702073767176</v>
+        <v>0.008316257829331625</v>
       </c>
       <c r="J13" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K13" t="n">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L13" t="n">
-        <v>6.774139428844528e-05</v>
+        <v>1.51716385162759e-05</v>
       </c>
       <c r="M13" t="n">
-        <v>12.27956558520759</v>
+        <v>12.28849036483859</v>
       </c>
       <c r="N13" t="n">
-        <v>246.1257573712825</v>
+        <v>245.7101458851072</v>
       </c>
       <c r="O13" t="n">
-        <v>15.68839562770147</v>
+        <v>15.67514420619814</v>
       </c>
       <c r="P13" t="n">
-        <v>316.2978901681427</v>
+        <v>316.3878008115807</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -29161,28 +29371,28 @@
         <v>0.0563</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0422014207936184</v>
+        <v>0.03579135039510239</v>
       </c>
       <c r="J14" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K14" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0005237816878741475</v>
+        <v>0.0003825612203207651</v>
       </c>
       <c r="M14" t="n">
-        <v>10.39606476721758</v>
+        <v>10.37940757883123</v>
       </c>
       <c r="N14" t="n">
-        <v>177.982963827902</v>
+        <v>177.1441482317608</v>
       </c>
       <c r="O14" t="n">
-        <v>13.34102559130677</v>
+        <v>13.30955101540848</v>
       </c>
       <c r="P14" t="n">
-        <v>324.3236308963997</v>
+        <v>324.3858567191447</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -29238,28 +29448,28 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07030593883300226</v>
+        <v>0.06664496410905438</v>
       </c>
       <c r="J15" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K15" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001491117395323593</v>
+        <v>0.001357500847809945</v>
       </c>
       <c r="M15" t="n">
-        <v>10.51611975206262</v>
+        <v>10.5028603159691</v>
       </c>
       <c r="N15" t="n">
-        <v>178.8359228345224</v>
+        <v>178.3718229355192</v>
       </c>
       <c r="O15" t="n">
-        <v>13.37295490288225</v>
+        <v>13.35559144836047</v>
       </c>
       <c r="P15" t="n">
-        <v>334.55670941387</v>
+        <v>334.5918345963345</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -29315,28 +29525,28 @@
         <v>0.09619999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>0.06757376497106815</v>
+        <v>0.06786807147074186</v>
       </c>
       <c r="J16" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K16" t="n">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001217434272899554</v>
+        <v>0.001242318676966336</v>
       </c>
       <c r="M16" t="n">
-        <v>11.26592057811107</v>
+        <v>11.26698718043266</v>
       </c>
       <c r="N16" t="n">
-        <v>199.0805271017894</v>
+        <v>198.7756431159839</v>
       </c>
       <c r="O16" t="n">
-        <v>14.10958989842686</v>
+        <v>14.09878161813934</v>
       </c>
       <c r="P16" t="n">
-        <v>320.8658851836571</v>
+        <v>320.8634431052537</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -29392,28 +29602,28 @@
         <v>0.0847</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2033994811306459</v>
+        <v>0.1909186560952136</v>
       </c>
       <c r="J17" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K17" t="n">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01082625896914213</v>
+        <v>0.009675072350942227</v>
       </c>
       <c r="M17" t="n">
-        <v>10.83810516365029</v>
+        <v>10.82349913188614</v>
       </c>
       <c r="N17" t="n">
-        <v>197.1956081283786</v>
+        <v>196.620752326836</v>
       </c>
       <c r="O17" t="n">
-        <v>14.04263536977225</v>
+        <v>14.02215220024501</v>
       </c>
       <c r="P17" t="n">
-        <v>306.890299839187</v>
+        <v>307.012688994747</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -29450,7 +29660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R410"/>
+  <dimension ref="A1:R413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64914,6 +65124,282 @@
         </is>
       </c>
     </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-23 21:54:07+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>-38.20572521915167,178.33393422788697</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>-38.206434926210285,178.3338897789356</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>-38.20713976655605,178.3339313795002</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>-38.207846375497375,178.33394154411135</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>-38.208550436352176,178.3339967041561</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>-38.2092347160198,178.33412339054533</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>-38.209926533890325,178.33417222145744</t>
+        </is>
+      </c>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>-38.210627486858826,178.33403751774657</t>
+        </is>
+      </c>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>-38.2113324366379,178.33400581344213</t>
+        </is>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>-38.212028409539066,178.33388781273993</t>
+        </is>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>-38.212696604878964,178.33366124271515</t>
+        </is>
+      </c>
+      <c r="M411" t="inlineStr">
+        <is>
+          <t>-38.213377005730514,178.33351082048307</t>
+        </is>
+      </c>
+      <c r="N411" t="inlineStr">
+        <is>
+          <t>-38.21406858080178,178.3333344357749</t>
+        </is>
+      </c>
+      <c r="O411" t="inlineStr">
+        <is>
+          <t>-38.21480042011313,178.33327421086653</t>
+        </is>
+      </c>
+      <c r="P411" t="inlineStr">
+        <is>
+          <t>-38.21552861879875,178.3333260495179</t>
+        </is>
+      </c>
+      <c r="Q411" t="inlineStr">
+        <is>
+          <t>-38.2162796718083,178.3333724145545</t>
+        </is>
+      </c>
+      <c r="R411" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-09 21:54:06+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>-38.20570359288094,178.33431713188577</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>-38.20641501978395,178.33424223587556</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>-38.20712900473755,178.33412192626736</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>-38.20783373325189,178.33416538474393</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>-38.20853027239645,178.33435371626769</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>-38.20923204613652,178.33438245494176</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>-38.20992709116862,178.33418747020835</t>
+        </is>
+      </c>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>-38.21062910048089,178.33408079150612</t>
+        </is>
+      </c>
+      <c r="J412" t="inlineStr">
+        <is>
+          <t>-38.211327285376576,178.3338676676879</t>
+        </is>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>-38.212015192320294,178.3336608139089</t>
+        </is>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>-38.21267098897363,178.33344608549373</t>
+        </is>
+      </c>
+      <c r="M412" t="inlineStr">
+        <is>
+          <t>-38.213329400230656,178.33321199022097</t>
+        </is>
+      </c>
+      <c r="N412" t="inlineStr">
+        <is>
+          <t>-38.214043977555335,178.33317999394953</t>
+        </is>
+      </c>
+      <c r="O412" t="inlineStr">
+        <is>
+          <t>-38.21480206736074,178.33297618668732</t>
+        </is>
+      </c>
+      <c r="P412" t="inlineStr">
+        <is>
+          <t>-38.21560602102918,178.33299247010552</t>
+        </is>
+      </c>
+      <c r="Q412" t="inlineStr">
+        <is>
+          <t>-38.21634284585777,178.3331537439528</t>
+        </is>
+      </c>
+      <c r="R412" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:53:31+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>-38.20571772797975,178.3340668653788</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>-38.20642559346563,178.33405502393848</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>-38.20713304534136,178.33405038473165</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>-38.207839457610426,178.33406403153933</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>-38.20853960773825,178.33418843215804</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>-38.20923383238309,178.33420913784525</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>-38.20992783974822,178.3342079536051</t>
+        </is>
+      </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>-38.21063028492495,178.33411255594123</t>
+        </is>
+      </c>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>-38.211327947327135,178.3338854195311</t>
+        </is>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>-38.212018625664875,178.33371977906774</t>
+        </is>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>-38.21267454303722,178.33347593714376</t>
+        </is>
+      </c>
+      <c r="M413" t="inlineStr">
+        <is>
+          <t>-38.21332956034016,178.33321299525497</t>
+        </is>
+      </c>
+      <c r="N413" t="inlineStr">
+        <is>
+          <t>-38.214038053531574,178.3331428073183</t>
+        </is>
+      </c>
+      <c r="O413" t="inlineStr">
+        <is>
+          <t>-38.214801012521285,178.33316704673035</t>
+        </is>
+      </c>
+      <c r="P413" t="inlineStr">
+        <is>
+          <t>-38.21555436046628,178.3332151115008</t>
+        </is>
+      </c>
+      <c r="Q413" t="inlineStr">
+        <is>
+          <t>-38.21630848754657,178.3332726719987</t>
+        </is>
+      </c>
+      <c r="R413" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0249/nzd0249.xlsx
+++ b/data/nzd0249/nzd0249.xlsx
@@ -28298,7 +28298,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28389,35 +28389,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -28476,27 +28481,28 @@
       <c r="P2" t="n">
         <v>312.6439393771309</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (178.3302510585995 -38.20593317877999, 178.3406484532003 -38.20534581960171)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>178.3302510585995</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-38.20593317877999</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>178.3406484532003</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-38.20534581960171</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>178.3354497558999</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-38.20563949919085</v>
       </c>
     </row>
@@ -28553,27 +28559,28 @@
       <c r="P3" t="n">
         <v>311.9428106401887</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (178.3302813000107 -38.206638668179494, 178.34067875968324 -38.20605130336974)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>178.3302813000107</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-38.20663866817949</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>178.3406787596832</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-38.20605130336974</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>178.335480029847</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-38.20634498577462</v>
       </c>
     </row>
@@ -28624,27 +28631,28 @@
       <c r="P4" t="n">
         <v>310.2491578104764</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (178.33031154142142 -38.20734415074165, 178.34070906616734 -38.2067567803006)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>178.3303115414214</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-38.20734415074165</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>178.3407090661673</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-38.2067567803006</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>178.3355103037944</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-38.20705046552112</v>
       </c>
     </row>
@@ -28701,27 +28709,28 @@
       <c r="P5" t="n">
         <v>314.5221168482465</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (178.33034178283157 -38.2080496264664, 178.3407393726525 -38.20746225039423)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>178.3303417828316</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-38.2080496264664</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>178.3407393726525</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-38.20746225039423</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>178.3355405777421</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-38.20775593843031</v>
       </c>
     </row>
@@ -28778,27 +28787,28 @@
       <c r="P6" t="n">
         <v>320.778502647763</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (178.33037202424117 -38.20875509535381, 178.3407696791388 -38.208167713650425)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>178.3303720242412</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-38.20875509535381</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>178.3407696791388</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-38.20816771365043</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>178.33557085169</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-38.20846140450212</v>
       </c>
     </row>
@@ -28855,27 +28865,28 @@
       <c r="P7" t="n">
         <v>324.3620486505365</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (178.3303935320261 -38.209273091792504, 178.34081702493125 -38.20916554803979)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>178.3303935320261</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-38.2092730917925</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>178.3408170249313</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-38.20916554803979</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>178.3356052784787</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-38.20921931991614</v>
       </c>
     </row>
@@ -28932,27 +28943,28 @@
       <c r="P8" t="n">
         <v>332.219744292277</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (178.3303241877938 -38.20978584009437, 178.34073742624975 -38.2101662790335)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>178.3303241877938</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-38.20978584009437</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>178.3407374262497</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-38.2101662790335</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>178.3355308070218</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-38.20997605956394</v>
       </c>
     </row>
@@ -29009,27 +29021,28 @@
       <c r="P9" t="n">
         <v>334.4317589284064</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (178.33024795902585 -38.21048611640697, 178.34066080477746 -38.21087427231704)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>178.3302479590259</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-38.21048611640697</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>178.3406608047775</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-38.21087427231704</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>178.3354543819017</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-38.21068019436201</v>
       </c>
     </row>
@@ -29086,27 +29099,28 @@
       <c r="P10" t="n">
         <v>331.0519869768316</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (178.330171529258 -38.21118940033519, 178.34058444165575 -38.21157755355681)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>178.330171529258</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-38.21118940033519</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>178.3405844416557</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-38.21157755355681</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>178.3353779854569</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-38.211383476946</v>
       </c>
     </row>
@@ -29163,27 +29177,28 @@
       <c r="P11" t="n">
         <v>321.8607382308523</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (178.3301022306791 -38.21180793177664, 178.34049850726282 -38.21241312638621)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>178.3301022306791</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-38.21180793177664</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>178.3404985072628</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-38.21241312638621</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>178.335300368971</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-38.21211052908143</v>
       </c>
     </row>
@@ -29240,27 +29255,28 @@
       <c r="P12" t="n">
         <v>315.7705270943979</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (178.3300151870099 -38.212262460794726, 178.34032284026407 -38.21348950465326)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>178.3300151870099</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-38.21226246079473</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>178.3403228402641</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-38.21348950465326</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>178.335169013637</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-38.21287598272399</v>
       </c>
     </row>
@@ -29317,27 +29333,28 @@
       <c r="P13" t="n">
         <v>316.3878008115807</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (178.32984012058233 -38.21279218227394, 178.34005806244457 -38.21441981028252)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>178.3298401205823</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-38.21279218227394</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>178.3400580624446</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-38.21441981028252</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>178.3349490915135</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-38.21360599627823</v>
       </c>
     </row>
@@ -29394,27 +29411,28 @@
       <c r="P14" t="n">
         <v>324.3858567191447</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (178.32962885950286 -38.21347820451859, 178.33984686454477 -38.21510583393076)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>178.3296288595029</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-38.21347820451859</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>178.3398468645448</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-38.21510583393076</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>178.3347378620238</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-38.21429201922467</v>
       </c>
     </row>
@@ -29471,27 +29489,28 @@
       <c r="P15" t="n">
         <v>334.5918345963345</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (178.32933217961684 -38.21482214713893, 178.33975683730299 -38.21476440102785)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>178.3293321796168</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-38.21482214713893</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>178.339756837303</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-38.21476440102785</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>178.3345445084599</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-38.21479327408339</v>
       </c>
     </row>
@@ -29548,27 +29567,28 @@
       <c r="P16" t="n">
         <v>320.8634431052537</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (178.32964947203374 -38.216381654694096, 178.33964979780023 -38.21406107913388)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>178.3296494720337</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-38.2163816546941</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>178.3396497978002</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-38.21406107913388</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>178.334649634917</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-38.21522136691399</v>
       </c>
     </row>
@@ -29625,27 +29645,28 @@
       <c r="P17" t="n">
         <v>307.012688994747</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (178.33000825689675 -38.217251522923256, 178.3397960161261 -38.2144236651496)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>178.3300082568967</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-38.21725152292326</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>178.3397960161261</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-38.2144236651496</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>178.3349021365114</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-38.21583759403643</v>
       </c>
     </row>

--- a/data/nzd0249/nzd0249.xlsx
+++ b/data/nzd0249/nzd0249.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R413"/>
+  <dimension ref="A1:R418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24116,6 +24116,306 @@
         </is>
       </c>
     </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:54:08+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>299.8209090909091</v>
+      </c>
+      <c r="C414" t="n">
+        <v>298.8166666666667</v>
+      </c>
+      <c r="D414" t="n">
+        <v>285.370909090909</v>
+      </c>
+      <c r="E414" t="n">
+        <v>299.96</v>
+      </c>
+      <c r="F414" t="n">
+        <v>301.920909090909</v>
+      </c>
+      <c r="G414" t="n">
+        <v>312.4055555555556</v>
+      </c>
+      <c r="H414" t="n">
+        <v>307.59</v>
+      </c>
+      <c r="I414" t="n">
+        <v>309.9885714285714</v>
+      </c>
+      <c r="J414" t="n">
+        <v>312.99</v>
+      </c>
+      <c r="K414" t="n">
+        <v>298.72</v>
+      </c>
+      <c r="L414" t="n">
+        <v>289.56</v>
+      </c>
+      <c r="M414" t="n">
+        <v>285.06</v>
+      </c>
+      <c r="N414" t="n">
+        <v>299.83</v>
+      </c>
+      <c r="O414" t="n">
+        <v>316.1966666666667</v>
+      </c>
+      <c r="P414" t="n">
+        <v>300.955</v>
+      </c>
+      <c r="Q414" t="n">
+        <v>283.6533333333333</v>
+      </c>
+      <c r="R414" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:53:52+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>330.5936363636364</v>
+      </c>
+      <c r="C415" t="n">
+        <v>326.5166666666667</v>
+      </c>
+      <c r="D415" t="n">
+        <v>313.4236363636364</v>
+      </c>
+      <c r="E415" t="n">
+        <v>318.3</v>
+      </c>
+      <c r="F415" t="n">
+        <v>327.8836363636364</v>
+      </c>
+      <c r="G415" t="n">
+        <v>326.0855555555555</v>
+      </c>
+      <c r="H415" t="n">
+        <v>322.66</v>
+      </c>
+      <c r="I415" t="n">
+        <v>317.1257142857143</v>
+      </c>
+      <c r="J415" t="n">
+        <v>315.13</v>
+      </c>
+      <c r="K415" t="n">
+        <v>304.53</v>
+      </c>
+      <c r="L415" t="n">
+        <v>293.77</v>
+      </c>
+      <c r="M415" t="n">
+        <v>294.95</v>
+      </c>
+      <c r="N415" t="n">
+        <v>306.46</v>
+      </c>
+      <c r="O415" t="n">
+        <v>312.7566666666667</v>
+      </c>
+      <c r="P415" t="n">
+        <v>279.46</v>
+      </c>
+      <c r="Q415" t="n">
+        <v>265.6533333333333</v>
+      </c>
+      <c r="R415" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:53:56+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>335.6390909090909</v>
+      </c>
+      <c r="C416" t="n">
+        <v>329.43</v>
+      </c>
+      <c r="D416" t="n">
+        <v>316.4790909090909</v>
+      </c>
+      <c r="E416" t="n">
+        <v>320.02</v>
+      </c>
+      <c r="F416" t="n">
+        <v>333.6090909090909</v>
+      </c>
+      <c r="G416" t="n">
+        <v>338.93</v>
+      </c>
+      <c r="H416" t="n">
+        <v>327.92</v>
+      </c>
+      <c r="I416" t="n">
+        <v>334.4742857142857</v>
+      </c>
+      <c r="J416" t="n">
+        <v>323.91</v>
+      </c>
+      <c r="K416" t="n">
+        <v>316.56</v>
+      </c>
+      <c r="L416" t="n">
+        <v>317.26</v>
+      </c>
+      <c r="M416" t="n">
+        <v>307.69</v>
+      </c>
+      <c r="N416" t="n">
+        <v>311.29</v>
+      </c>
+      <c r="O416" t="n">
+        <v>325.08</v>
+      </c>
+      <c r="P416" t="n">
+        <v>312.415</v>
+      </c>
+      <c r="Q416" t="n">
+        <v>298.65</v>
+      </c>
+      <c r="R416" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-29 21:53:43+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>340.1072727272727</v>
+      </c>
+      <c r="C417" t="n">
+        <v>345.08</v>
+      </c>
+      <c r="D417" t="n">
+        <v>332.3072727272727</v>
+      </c>
+      <c r="E417" t="n">
+        <v>342.66</v>
+      </c>
+      <c r="F417" t="n">
+        <v>349.5972727272728</v>
+      </c>
+      <c r="G417" t="n">
+        <v>345.48</v>
+      </c>
+      <c r="H417" t="n">
+        <v>339.71</v>
+      </c>
+      <c r="I417" t="n">
+        <v>330.7871428571428</v>
+      </c>
+      <c r="J417" t="n">
+        <v>323.09</v>
+      </c>
+      <c r="K417" t="n">
+        <v>314.43</v>
+      </c>
+      <c r="L417" t="n">
+        <v>313.02</v>
+      </c>
+      <c r="M417" t="n">
+        <v>302.68</v>
+      </c>
+      <c r="N417" t="n">
+        <v>322.29</v>
+      </c>
+      <c r="O417" t="n">
+        <v>331.46</v>
+      </c>
+      <c r="P417" t="n">
+        <v>312.32</v>
+      </c>
+      <c r="Q417" t="n">
+        <v>302.99</v>
+      </c>
+      <c r="R417" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:53:31+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>339.9163636363636</v>
+      </c>
+      <c r="C418" t="n">
+        <v>337.92</v>
+      </c>
+      <c r="D418" t="n">
+        <v>334.5863636363636</v>
+      </c>
+      <c r="E418" t="n">
+        <v>333.07</v>
+      </c>
+      <c r="F418" t="n">
+        <v>331.3063636363636</v>
+      </c>
+      <c r="G418" t="n">
+        <v>332.0166666666667</v>
+      </c>
+      <c r="H418" t="n">
+        <v>338.45</v>
+      </c>
+      <c r="I418" t="n">
+        <v>323.4228571428571</v>
+      </c>
+      <c r="J418" t="n">
+        <v>321.82</v>
+      </c>
+      <c r="K418" t="n">
+        <v>309.32</v>
+      </c>
+      <c r="L418" t="n">
+        <v>306.19</v>
+      </c>
+      <c r="M418" t="n">
+        <v>299.85</v>
+      </c>
+      <c r="N418" t="n">
+        <v>310.43</v>
+      </c>
+      <c r="O418" t="n">
+        <v>319.4</v>
+      </c>
+      <c r="P418" t="n">
+        <v>306.55</v>
+      </c>
+      <c r="Q418" t="n">
+        <v>300.66</v>
+      </c>
+      <c r="R418" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24127,7 +24427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B415"/>
+  <dimension ref="A1:B420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28285,6 +28585,56 @@
       </c>
       <c r="B415" t="n">
         <v>-0.53</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>2025-03-29 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>-0.24</v>
       </c>
     </row>
   </sheetData>
@@ -28458,28 +28808,28 @@
         <v>0.0653</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.01444059274542466</v>
+        <v>0.03361279392610584</v>
       </c>
       <c r="J2" t="n">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K2" t="n">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="L2" t="n">
-        <v>5.076430289085998e-05</v>
+        <v>0.0002750740317366551</v>
       </c>
       <c r="M2" t="n">
-        <v>11.58861952308816</v>
+        <v>11.75477030917744</v>
       </c>
       <c r="N2" t="n">
-        <v>222.2001474339886</v>
+        <v>226.1526707981471</v>
       </c>
       <c r="O2" t="n">
-        <v>14.90637942070403</v>
+        <v>15.03837327632703</v>
       </c>
       <c r="P2" t="n">
-        <v>312.6439393771309</v>
+        <v>312.1821654398307</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28536,28 +28886,28 @@
         <v>0.0682</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04090273119783196</v>
+        <v>0.0816362352207156</v>
       </c>
       <c r="J3" t="n">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K3" t="n">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0005751582310489223</v>
+        <v>0.002269887358255396</v>
       </c>
       <c r="M3" t="n">
-        <v>9.857151353559667</v>
+        <v>10.00822746957229</v>
       </c>
       <c r="N3" t="n">
-        <v>158.194169664819</v>
+        <v>162.2787031308272</v>
       </c>
       <c r="O3" t="n">
-        <v>12.57752637305202</v>
+        <v>12.73886584947134</v>
       </c>
       <c r="P3" t="n">
-        <v>311.9428106401887</v>
+        <v>311.5537997064346</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28608,28 +28958,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.231535020307134</v>
+        <v>0.2323575240556164</v>
       </c>
       <c r="J4" t="n">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K4" t="n">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0189310032812483</v>
+        <v>0.01910355579179301</v>
       </c>
       <c r="M4" t="n">
-        <v>9.36730566214422</v>
+        <v>9.425063364417026</v>
       </c>
       <c r="N4" t="n">
-        <v>144.9342636258608</v>
+        <v>147.1651380957179</v>
       </c>
       <c r="O4" t="n">
-        <v>12.03886471499123</v>
+        <v>12.13116392172317</v>
       </c>
       <c r="P4" t="n">
-        <v>310.2491578104764</v>
+        <v>310.2404176562249</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28686,28 +29036,28 @@
         <v>0.0546</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1356094750468027</v>
+        <v>0.148661437662935</v>
       </c>
       <c r="J5" t="n">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K5" t="n">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005762501481938909</v>
+        <v>0.006999886392769161</v>
       </c>
       <c r="M5" t="n">
-        <v>10.12160859037879</v>
+        <v>10.14129585626232</v>
       </c>
       <c r="N5" t="n">
-        <v>166.6427427054308</v>
+        <v>167.5012529919667</v>
       </c>
       <c r="O5" t="n">
-        <v>12.90901788307038</v>
+        <v>12.9422275127571</v>
       </c>
       <c r="P5" t="n">
-        <v>314.5221168482465</v>
+        <v>314.3937521942783</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28764,28 +29114,28 @@
         <v>0.0602</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1689721620702619</v>
+        <v>0.1790179432744711</v>
       </c>
       <c r="J6" t="n">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K6" t="n">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="L6" t="n">
-        <v>0.008530127498999396</v>
+        <v>0.009677682613253857</v>
       </c>
       <c r="M6" t="n">
-        <v>10.22865808953305</v>
+        <v>10.25978465546049</v>
       </c>
       <c r="N6" t="n">
-        <v>177.2497007331483</v>
+        <v>178.1999956196727</v>
       </c>
       <c r="O6" t="n">
-        <v>13.31351571648707</v>
+        <v>13.34915711270463</v>
       </c>
       <c r="P6" t="n">
-        <v>320.778502647763</v>
+        <v>320.6813425186625</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28842,28 +29192,28 @@
         <v>0.0495</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3577469890972083</v>
+        <v>0.3511281868270351</v>
       </c>
       <c r="J7" t="n">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K7" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03986323154356897</v>
+        <v>0.03916196633558433</v>
       </c>
       <c r="M7" t="n">
-        <v>10.00098876116886</v>
+        <v>9.994244171742663</v>
       </c>
       <c r="N7" t="n">
-        <v>165.8967213288885</v>
+        <v>165.4887826314724</v>
       </c>
       <c r="O7" t="n">
-        <v>12.88009011338385</v>
+        <v>12.86424434747228</v>
       </c>
       <c r="P7" t="n">
-        <v>324.3620486505365</v>
+        <v>324.4257568133142</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28920,28 +29270,28 @@
         <v>0.0528</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3477096620142239</v>
+        <v>0.3110988231608177</v>
       </c>
       <c r="J8" t="n">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K8" t="n">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03947266132028793</v>
+        <v>0.03194543705180242</v>
       </c>
       <c r="M8" t="n">
-        <v>9.729782096738072</v>
+        <v>9.782491799423513</v>
       </c>
       <c r="N8" t="n">
-        <v>155.157674203872</v>
+        <v>157.3090512128163</v>
       </c>
       <c r="O8" t="n">
-        <v>12.45623033681828</v>
+        <v>12.5422905090265</v>
       </c>
       <c r="P8" t="n">
-        <v>332.219744292277</v>
+        <v>332.576552916497</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28998,28 +29348,28 @@
         <v>0.0373</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2127740980435253</v>
+        <v>0.169247229327316</v>
       </c>
       <c r="J9" t="n">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K9" t="n">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01402160673111308</v>
+        <v>0.008949402590880284</v>
       </c>
       <c r="M9" t="n">
-        <v>10.07061049562314</v>
+        <v>10.1630009350418</v>
       </c>
       <c r="N9" t="n">
-        <v>170.6934110106575</v>
+        <v>172.9566474697632</v>
       </c>
       <c r="O9" t="n">
-        <v>13.06496884843808</v>
+        <v>13.15129831878827</v>
       </c>
       <c r="P9" t="n">
-        <v>334.4317589284064</v>
+        <v>334.8505351859021</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29076,28 +29426,28 @@
         <v>0.0436</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1635469611848883</v>
+        <v>0.1219459297772641</v>
       </c>
       <c r="J10" t="n">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K10" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="L10" t="n">
-        <v>0.009831148239599741</v>
+        <v>0.005528004753000859</v>
       </c>
       <c r="M10" t="n">
-        <v>9.590730609519252</v>
+        <v>9.679489640365912</v>
       </c>
       <c r="N10" t="n">
-        <v>145.8799982353269</v>
+        <v>147.3654606044181</v>
       </c>
       <c r="O10" t="n">
-        <v>12.07807924445468</v>
+        <v>12.13941763860269</v>
       </c>
       <c r="P10" t="n">
-        <v>331.0519869768316</v>
+        <v>331.4482080849429</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29154,28 +29504,28 @@
         <v>0.0432</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05110372340349958</v>
+        <v>0.01366513293123511</v>
       </c>
       <c r="J11" t="n">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K11" t="n">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0007940456223239911</v>
+        <v>5.750771179868774e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>10.56775113069994</v>
+        <v>10.61484722812835</v>
       </c>
       <c r="N11" t="n">
-        <v>175.1212503378708</v>
+        <v>175.9754112980385</v>
       </c>
       <c r="O11" t="n">
-        <v>13.2333385937892</v>
+        <v>13.26557240747788</v>
       </c>
       <c r="P11" t="n">
-        <v>321.8607382308523</v>
+        <v>322.2211203002526</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29232,28 +29582,28 @@
         <v>0.0454</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08458244850680172</v>
+        <v>0.04820436529969569</v>
       </c>
       <c r="J12" t="n">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K12" t="n">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002029632068438425</v>
+        <v>0.0006662222831914644</v>
       </c>
       <c r="M12" t="n">
-        <v>10.86216387174375</v>
+        <v>10.89154065211449</v>
       </c>
       <c r="N12" t="n">
-        <v>186.0939584780274</v>
+        <v>187.5608119872754</v>
       </c>
       <c r="O12" t="n">
-        <v>13.641625947006</v>
+        <v>13.69528429742426</v>
       </c>
       <c r="P12" t="n">
-        <v>315.7705270943979</v>
+        <v>316.1221802288777</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29310,28 +29660,28 @@
         <v>0.0454</v>
       </c>
       <c r="I13" t="n">
-        <v>0.008316257829331625</v>
+        <v>-0.03904544773100318</v>
       </c>
       <c r="J13" t="n">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K13" t="n">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="L13" t="n">
-        <v>1.51716385162759e-05</v>
+        <v>0.00033736695939246</v>
       </c>
       <c r="M13" t="n">
-        <v>12.28849036483859</v>
+        <v>12.34924270178772</v>
       </c>
       <c r="N13" t="n">
-        <v>245.7101458851072</v>
+        <v>247.5243122071453</v>
       </c>
       <c r="O13" t="n">
-        <v>15.67514420619814</v>
+        <v>15.73290539624342</v>
       </c>
       <c r="P13" t="n">
-        <v>316.3878008115807</v>
+        <v>316.8421862944369</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29388,28 +29738,28 @@
         <v>0.0563</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03579135039510239</v>
+        <v>-0.00417849131101236</v>
       </c>
       <c r="J14" t="n">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K14" t="n">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0003825612203207651</v>
+        <v>5.267505608697043e-06</v>
       </c>
       <c r="M14" t="n">
-        <v>10.37940757883123</v>
+        <v>10.43863478866944</v>
       </c>
       <c r="N14" t="n">
-        <v>177.1441482317608</v>
+        <v>178.4135377617176</v>
       </c>
       <c r="O14" t="n">
-        <v>13.30955101540848</v>
+        <v>13.35715305601151</v>
       </c>
       <c r="P14" t="n">
-        <v>324.3858567191447</v>
+        <v>324.7736264402987</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29466,28 +29816,28 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06664496410905438</v>
+        <v>0.02594009067976416</v>
       </c>
       <c r="J15" t="n">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K15" t="n">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001357500847809945</v>
+        <v>0.0002079644755504928</v>
       </c>
       <c r="M15" t="n">
-        <v>10.5028603159691</v>
+        <v>10.56721811758137</v>
       </c>
       <c r="N15" t="n">
-        <v>178.3718229355192</v>
+        <v>179.5784733794592</v>
       </c>
       <c r="O15" t="n">
-        <v>13.35559144836047</v>
+        <v>13.40068928747545</v>
       </c>
       <c r="P15" t="n">
-        <v>334.5918345963345</v>
+        <v>334.9807779414575</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29544,28 +29894,28 @@
         <v>0.09619999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>0.06786807147074186</v>
+        <v>0.01440421307828438</v>
       </c>
       <c r="J16" t="n">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K16" t="n">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001242318676966336</v>
+        <v>5.5673673102552e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>11.26698718043266</v>
+        <v>11.3696760538867</v>
       </c>
       <c r="N16" t="n">
-        <v>198.7756431159839</v>
+        <v>203.3179819658939</v>
       </c>
       <c r="O16" t="n">
-        <v>14.09878161813934</v>
+        <v>14.25896146168766</v>
       </c>
       <c r="P16" t="n">
-        <v>320.8634431052537</v>
+        <v>321.3831317629223</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29622,28 +29972,28 @@
         <v>0.0847</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1909186560952136</v>
+        <v>0.1335149815573005</v>
       </c>
       <c r="J17" t="n">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K17" t="n">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="L17" t="n">
-        <v>0.009675072350942227</v>
+        <v>0.004693822998310782</v>
       </c>
       <c r="M17" t="n">
-        <v>10.82349913188614</v>
+        <v>10.96457468157504</v>
       </c>
       <c r="N17" t="n">
-        <v>196.620752326836</v>
+        <v>202.509202301729</v>
       </c>
       <c r="O17" t="n">
-        <v>14.02215220024501</v>
+        <v>14.23057280300863</v>
       </c>
       <c r="P17" t="n">
-        <v>307.012688994747</v>
+        <v>307.5772924681438</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29681,7 +30031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R413"/>
+  <dimension ref="A1:R418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65421,6 +65771,466 @@
         </is>
       </c>
     </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:54:08+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>-38.20574083748409,178.3336576835817</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>-38.20644696881048,178.33367654725646</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>-38.20716107693324,178.3335540456001</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>-38.207857188452614,178.33375008641283</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>-38.208561396499704,178.3338026415653</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>-38.209236481148714,178.33395208576346</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>-38.20991382407326,178.33382445889927</t>
+        </is>
+      </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>-38.21061771264297,178.33377540426153</t>
+        </is>
+      </c>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t>-38.21132226973966,178.33373316333783</t>
+        </is>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>-38.212005599964456,178.3334960750369</t>
+        </is>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>-38.21265085807299,178.33327700128055</t>
+        </is>
+      </c>
+      <c r="M414" t="inlineStr">
+        <is>
+          <t>-38.21329935285301,178.33302337890098</t>
+        </is>
+      </c>
+      <c r="N414" t="inlineStr">
+        <is>
+          <t>-38.21401165322819,178.33297708677287</t>
+        </is>
+      </c>
+      <c r="O414" t="inlineStr">
+        <is>
+          <t>-38.21480229818337,178.33293441468663</t>
+        </is>
+      </c>
+      <c r="P414" t="inlineStr">
+        <is>
+          <t>-38.215618447908774,178.33293891370212</t>
+        </is>
+      </c>
+      <c r="Q414" t="inlineStr">
+        <is>
+          <t>-38.21637487573785,178.3330428750864</t>
+        </is>
+      </c>
+      <c r="R414" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:53:52+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>-38.20572109059567,178.33400732777025</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>-38.20642919354092,178.33399128171897</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>-38.20714307548958,178.3338727910247</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>-38.20784541932204,178.3339584741941</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>-38.20854473533949,178.33409764517504</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>-38.209234875524196,178.3341079117328</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>-38.20992009177396,178.33399595044872</t>
+        </is>
+      </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>-38.210620741234244,178.3338566197768</t>
+        </is>
+      </c>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>-38.211323177827644,178.3337575152252</t>
+        </is>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>-38.21200944355049,178.33356208419676</t>
+        </is>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>-38.21265650440696,178.33332442595997</t>
+        </is>
+      </c>
+      <c r="M415" t="inlineStr">
+        <is>
+          <t>-38.21331694724098,178.33313382092024</t>
+        </is>
+      </c>
+      <c r="N415" t="inlineStr">
+        <is>
+          <t>-38.21402344800306,178.3330511249834</t>
+        </is>
+      </c>
+      <c r="O415" t="inlineStr">
+        <is>
+          <t>-38.21480251472339,178.3328952249532</t>
+        </is>
+      </c>
+      <c r="P415" t="inlineStr">
+        <is>
+          <t>-38.21567296105805,178.3327039757217</t>
+        </is>
+      </c>
+      <c r="Q415" t="inlineStr">
+        <is>
+          <t>-38.2164305079754,178.33285030748266</t>
+        </is>
+      </c>
+      <c r="R415" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:53:56+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>-38.20571785282411,178.33406465492644</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>-38.20642732398739,178.3340243837404</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>-38.20714111475162,178.33390750820948</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>-38.20784431554616,178.33397801764448</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>-38.20854106102268,178.33416270109012</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>-38.20923336778019,178.33425422003808</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>-38.209922279378745,178.3340558074859</t>
+        </is>
+      </c>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>-38.21062810272851,178.3340540339523</t>
+        </is>
+      </c>
+      <c r="J416" t="inlineStr">
+        <is>
+          <t>-38.21132690348079,178.33385742623994</t>
+        </is>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>-38.21201740183645,178.3336987606583</t>
+        </is>
+      </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>-38.21268800817294,178.3335890354892</t>
+        </is>
+      </c>
+      <c r="M416" t="inlineStr">
+        <is>
+          <t>-38.21333961164166,178.33327608906313</t>
+        </is>
+      </c>
+      <c r="N416" t="inlineStr">
+        <is>
+          <t>-38.21403204054593,178.33310506233406</t>
+        </is>
+      </c>
+      <c r="O416" t="inlineStr">
+        <is>
+          <t>-38.21480173893737,178.33303561684852</t>
+        </is>
+      </c>
+      <c r="P416" t="inlineStr">
+        <is>
+          <t>-38.21558938419071,178.333064170074</t>
+        </is>
+      </c>
+      <c r="Q416" t="inlineStr">
+        <is>
+          <t>-38.21632852561585,178.333203312179</t>
+        </is>
+      </c>
+      <c r="R416" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-29 21:53:43+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>-38.205714985477094,178.3341154230226</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>-38.20641728086114,178.3342022029036</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>-38.20713095737087,178.33408735371341</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>-38.20782978647431,178.33423526389993</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>-38.208530800399885,178.33434436797137</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>-38.20923259883859,178.3343288296693</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>-38.20992718266188,178.3341899737346</t>
+        </is>
+      </c>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>-38.210626538196685,178.3340120769375</t>
+        </is>
+      </c>
+      <c r="J417" t="inlineStr">
+        <is>
+          <t>-38.2113265555305,178.33384809514286</t>
+        </is>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>-38.212015992775186,178.33367456108448</t>
+        </is>
+      </c>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>-38.21268232171502,178.33354127283775</t>
+        </is>
+      </c>
+      <c r="M417" t="inlineStr">
+        <is>
+          <t>-38.21333069889644,178.33322014216353</t>
+        </is>
+      </c>
+      <c r="N417" t="inlineStr">
+        <is>
+          <t>-38.21405160938765,178.333227901058</t>
+        </is>
+      </c>
+      <c r="O417" t="inlineStr">
+        <is>
+          <t>-38.21480133723348,178.33310830011993</t>
+        </is>
+      </c>
+      <c r="P417" t="inlineStr">
+        <is>
+          <t>-38.21558962512083,178.3330631317363</t>
+        </is>
+      </c>
+      <c r="Q417" t="inlineStr">
+        <is>
+          <t>-38.216315111961386,178.33324974225326</t>
+        </is>
+      </c>
+      <c r="R417" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:53:31+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>-38.2057151079888,178.3341132538874</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>-38.20642187570477,178.3341208492262</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>-38.20712949479287,178.33411324955856</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>-38.20783594086232,178.33412629786096</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>-38.208542538804764,178.33413653617671</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>-38.20923417932396,178.3341754717478</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>-38.209926658654304,178.3341756353569</t>
+        </is>
+      </c>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>-38.21062341333071,178.33392827670076</t>
+        </is>
+      </c>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>-38.21132601663041,178.33383364332184</t>
+        </is>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>-38.212012612330504,178.33361650483138</t>
+        </is>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>-38.21267316164739,178.3334643344267</t>
+        </is>
+      </c>
+      <c r="M418" t="inlineStr">
+        <is>
+          <t>-38.21332566433946,178.33318853942856</t>
+        </is>
+      </c>
+      <c r="N418" t="inlineStr">
+        <is>
+          <t>-38.21403051061266,178.33309545858145</t>
+        </is>
+      </c>
+      <c r="O418" t="inlineStr">
+        <is>
+          <t>-38.21480209652915,178.33297090822555</t>
+        </is>
+      </c>
+      <c r="P418" t="inlineStr">
+        <is>
+          <t>-38.215604258439264,178.3330000663692</t>
+        </is>
+      </c>
+      <c r="Q418" t="inlineStr">
+        <is>
+          <t>-38.216322313303365,178.33322481551068</t>
+        </is>
+      </c>
+      <c r="R418" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0249/nzd0249.xlsx
+++ b/data/nzd0249/nzd0249.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R418"/>
+  <dimension ref="A1:R419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24416,6 +24416,66 @@
         </is>
       </c>
     </row>
+    <row r="419">
+      <c r="A419" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:53:29+00:00</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>320.6663636363636</v>
+      </c>
+      <c r="C419" t="n">
+        <v>321.47</v>
+      </c>
+      <c r="D419" t="n">
+        <v>321.9963636363636</v>
+      </c>
+      <c r="E419" t="n">
+        <v>324.91</v>
+      </c>
+      <c r="F419" t="n">
+        <v>328.7263636363636</v>
+      </c>
+      <c r="G419" t="n">
+        <v>335.9333333333333</v>
+      </c>
+      <c r="H419" t="n">
+        <v>348.88</v>
+      </c>
+      <c r="I419" t="n">
+        <v>341.3</v>
+      </c>
+      <c r="J419" t="n">
+        <v>339.37</v>
+      </c>
+      <c r="K419" t="n">
+        <v>328.12</v>
+      </c>
+      <c r="L419" t="n">
+        <v>324.81</v>
+      </c>
+      <c r="M419" t="n">
+        <v>323.81</v>
+      </c>
+      <c r="N419" t="n">
+        <v>340.4</v>
+      </c>
+      <c r="O419" t="n">
+        <v>351.02</v>
+      </c>
+      <c r="P419" t="n">
+        <v>338.11</v>
+      </c>
+      <c r="Q419" t="n">
+        <v>321.53</v>
+      </c>
+      <c r="R419" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24427,7 +24487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B420"/>
+  <dimension ref="A1:B421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28635,6 +28695,16 @@
       </c>
       <c r="B420" t="n">
         <v>-0.24</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>0.42</v>
       </c>
     </row>
   </sheetData>
@@ -28808,28 +28878,28 @@
         <v>0.0653</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03361279392610584</v>
+        <v>0.03794495419203245</v>
       </c>
       <c r="J2" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K2" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002750740317366551</v>
+        <v>0.0003525134207347236</v>
       </c>
       <c r="M2" t="n">
-        <v>11.75477030917744</v>
+        <v>11.74480241039002</v>
       </c>
       <c r="N2" t="n">
-        <v>226.1526707981471</v>
+        <v>225.6775850712981</v>
       </c>
       <c r="O2" t="n">
-        <v>15.03837327632703</v>
+        <v>15.02256919009855</v>
       </c>
       <c r="P2" t="n">
-        <v>312.1821654398307</v>
+        <v>312.1402842525488</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28886,28 +28956,28 @@
         <v>0.0682</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0816362352207156</v>
+        <v>0.0860152771088591</v>
       </c>
       <c r="J3" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K3" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002269887358255396</v>
+        <v>0.002532633325311728</v>
       </c>
       <c r="M3" t="n">
-        <v>10.00822746957229</v>
+        <v>10.00263461514702</v>
       </c>
       <c r="N3" t="n">
-        <v>162.2787031308272</v>
+        <v>161.9958972747871</v>
       </c>
       <c r="O3" t="n">
-        <v>12.73886584947134</v>
+        <v>12.72776089006967</v>
       </c>
       <c r="P3" t="n">
-        <v>311.5537997064346</v>
+        <v>311.5117385004572</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28958,28 +29028,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.2323575240556164</v>
+        <v>0.2355562925758078</v>
       </c>
       <c r="J4" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K4" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01910355579179301</v>
+        <v>0.01972980234142607</v>
       </c>
       <c r="M4" t="n">
-        <v>9.425063364417026</v>
+        <v>9.414755077829117</v>
       </c>
       <c r="N4" t="n">
-        <v>147.1651380957179</v>
+        <v>146.8589385705104</v>
       </c>
       <c r="O4" t="n">
-        <v>12.13116392172317</v>
+        <v>12.11853698143923</v>
       </c>
       <c r="P4" t="n">
-        <v>310.2404176562249</v>
+        <v>310.208674034595</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29036,28 +29106,28 @@
         <v>0.0546</v>
       </c>
       <c r="I5" t="n">
-        <v>0.148661437662935</v>
+        <v>0.1522845108910667</v>
       </c>
       <c r="J5" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K5" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006999886392769161</v>
+        <v>0.007381726401244459</v>
       </c>
       <c r="M5" t="n">
-        <v>10.14129585626232</v>
+        <v>10.13061948715759</v>
       </c>
       <c r="N5" t="n">
-        <v>167.5012529919667</v>
+        <v>167.1778586633496</v>
       </c>
       <c r="O5" t="n">
-        <v>12.9422275127571</v>
+        <v>12.92972771033287</v>
       </c>
       <c r="P5" t="n">
-        <v>314.3937521942783</v>
+        <v>314.3580077908051</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29114,28 +29184,28 @@
         <v>0.0602</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1790179432744711</v>
+        <v>0.1808472204087007</v>
       </c>
       <c r="J6" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K6" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009677682613253857</v>
+        <v>0.009931869391136994</v>
       </c>
       <c r="M6" t="n">
-        <v>10.25978465546049</v>
+        <v>10.24114155971468</v>
       </c>
       <c r="N6" t="n">
-        <v>178.1999956196727</v>
+        <v>177.7685553694305</v>
       </c>
       <c r="O6" t="n">
-        <v>13.34915711270463</v>
+        <v>13.33298748853499</v>
       </c>
       <c r="P6" t="n">
-        <v>320.6813425186625</v>
+        <v>320.6636033150391</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29192,28 +29262,28 @@
         <v>0.0495</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3511281868270351</v>
+        <v>0.3524236457379569</v>
       </c>
       <c r="J7" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K7" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03916196633558433</v>
+        <v>0.0396599306411628</v>
       </c>
       <c r="M7" t="n">
-        <v>9.994244171742663</v>
+        <v>9.974494405444016</v>
       </c>
       <c r="N7" t="n">
-        <v>165.4887826314724</v>
+        <v>165.0723082678209</v>
       </c>
       <c r="O7" t="n">
-        <v>12.86424434747228</v>
+        <v>12.84804686587891</v>
       </c>
       <c r="P7" t="n">
-        <v>324.4257568133142</v>
+        <v>324.4131385651493</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29270,28 +29340,28 @@
         <v>0.0528</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3110988231608177</v>
+        <v>0.3155069387880466</v>
       </c>
       <c r="J8" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K8" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03194543705180242</v>
+        <v>0.03298090545204713</v>
       </c>
       <c r="M8" t="n">
-        <v>9.782491799423513</v>
+        <v>9.777745468501465</v>
       </c>
       <c r="N8" t="n">
-        <v>157.3090512128163</v>
+        <v>157.0789578498988</v>
       </c>
       <c r="O8" t="n">
-        <v>12.5422905090265</v>
+        <v>12.5331144513205</v>
       </c>
       <c r="P8" t="n">
-        <v>332.576552916497</v>
+        <v>332.5332465542672</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29348,28 +29418,28 @@
         <v>0.0373</v>
       </c>
       <c r="I9" t="n">
-        <v>0.169247229327316</v>
+        <v>0.170339989903256</v>
       </c>
       <c r="J9" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K9" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L9" t="n">
-        <v>0.008949402590880284</v>
+        <v>0.009116865401795349</v>
       </c>
       <c r="M9" t="n">
-        <v>10.1630009350418</v>
+        <v>10.14199126003012</v>
       </c>
       <c r="N9" t="n">
-        <v>172.9566474697632</v>
+        <v>172.5253418053542</v>
       </c>
       <c r="O9" t="n">
-        <v>13.15129831878827</v>
+        <v>13.13489024717581</v>
       </c>
       <c r="P9" t="n">
-        <v>334.8505351859021</v>
+        <v>334.8399430701529</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29426,28 +29496,28 @@
         <v>0.0436</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1219459297772641</v>
+        <v>0.1244676148149974</v>
       </c>
       <c r="J10" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K10" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005528004753000859</v>
+        <v>0.005789771593727622</v>
       </c>
       <c r="M10" t="n">
-        <v>9.679489640365912</v>
+        <v>9.666013824331467</v>
       </c>
       <c r="N10" t="n">
-        <v>147.3654606044181</v>
+        <v>147.0431596202951</v>
       </c>
       <c r="O10" t="n">
-        <v>12.13941763860269</v>
+        <v>12.12613539509992</v>
       </c>
       <c r="P10" t="n">
-        <v>331.4482080849429</v>
+        <v>331.4240143658026</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29504,28 +29574,28 @@
         <v>0.0432</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01366513293123511</v>
+        <v>0.01655525130949448</v>
       </c>
       <c r="J11" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K11" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L11" t="n">
-        <v>5.750771179868774e-05</v>
+        <v>8.486478716218659e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>10.61484722812835</v>
+        <v>10.60194035433561</v>
       </c>
       <c r="N11" t="n">
-        <v>175.9754112980385</v>
+        <v>175.6089919472398</v>
       </c>
       <c r="O11" t="n">
-        <v>13.26557240747788</v>
+        <v>13.25175429696913</v>
       </c>
       <c r="P11" t="n">
-        <v>322.2211203002526</v>
+        <v>322.1930967995485</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29582,28 +29652,28 @@
         <v>0.0454</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04820436529969569</v>
+        <v>0.05210581822595652</v>
       </c>
       <c r="J12" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K12" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0006662222831914644</v>
+        <v>0.0007823797438369917</v>
       </c>
       <c r="M12" t="n">
-        <v>10.89154065211449</v>
+        <v>10.88368385376732</v>
       </c>
       <c r="N12" t="n">
-        <v>187.5608119872754</v>
+        <v>187.226815130134</v>
       </c>
       <c r="O12" t="n">
-        <v>13.69528429742426</v>
+        <v>13.68308500047171</v>
       </c>
       <c r="P12" t="n">
-        <v>316.1221802288777</v>
+        <v>316.0841810143232</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29660,28 +29730,28 @@
         <v>0.0454</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.03904544773100318</v>
+        <v>-0.03494910426396822</v>
       </c>
       <c r="J13" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K13" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00033736695939246</v>
+        <v>0.000271705002108269</v>
       </c>
       <c r="M13" t="n">
-        <v>12.34924270178772</v>
+        <v>12.33903608498261</v>
       </c>
       <c r="N13" t="n">
-        <v>247.5243122071453</v>
+        <v>247.0596779350052</v>
       </c>
       <c r="O13" t="n">
-        <v>15.73290539624342</v>
+        <v>15.71813213887087</v>
       </c>
       <c r="P13" t="n">
-        <v>316.8421862944369</v>
+        <v>316.8025939099531</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29738,28 +29808,28 @@
         <v>0.0563</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.00417849131101236</v>
+        <v>0.004124832098547993</v>
       </c>
       <c r="J14" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K14" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L14" t="n">
-        <v>5.267505608697043e-06</v>
+        <v>5.145503994441469e-06</v>
       </c>
       <c r="M14" t="n">
-        <v>10.43863478866944</v>
+        <v>10.45110457996829</v>
       </c>
       <c r="N14" t="n">
-        <v>178.4135377617176</v>
+        <v>178.5846014429426</v>
       </c>
       <c r="O14" t="n">
-        <v>13.35715305601151</v>
+        <v>13.36355497025184</v>
       </c>
       <c r="P14" t="n">
-        <v>324.7736264402987</v>
+        <v>324.692478545217</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29816,28 +29886,28 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02594009067976416</v>
+        <v>0.034154640623259</v>
       </c>
       <c r="J15" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K15" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0002079644755504928</v>
+        <v>0.0003613871365181209</v>
       </c>
       <c r="M15" t="n">
-        <v>10.56721811758137</v>
+        <v>10.57908134387862</v>
       </c>
       <c r="N15" t="n">
-        <v>179.5784733794592</v>
+        <v>179.7241648173922</v>
       </c>
       <c r="O15" t="n">
-        <v>13.40068928747545</v>
+        <v>13.40612415343795</v>
       </c>
       <c r="P15" t="n">
-        <v>334.9807779414575</v>
+        <v>334.9016935097258</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29894,28 +29964,28 @@
         <v>0.09619999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01440421307828438</v>
+        <v>0.02308994129753211</v>
       </c>
       <c r="J16" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K16" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L16" t="n">
-        <v>5.5673673102552e-05</v>
+        <v>0.0001433960691619163</v>
       </c>
       <c r="M16" t="n">
-        <v>11.3696760538867</v>
+        <v>11.38452231930176</v>
       </c>
       <c r="N16" t="n">
-        <v>203.3179819658939</v>
+        <v>203.4813450742452</v>
       </c>
       <c r="O16" t="n">
-        <v>14.25896146168766</v>
+        <v>14.2646887478923</v>
       </c>
       <c r="P16" t="n">
-        <v>321.3831317629223</v>
+        <v>321.2980613335952</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29972,28 +30042,28 @@
         <v>0.0847</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1335149815573005</v>
+        <v>0.1391441542862305</v>
       </c>
       <c r="J17" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K17" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L17" t="n">
-        <v>0.004693822998310782</v>
+        <v>0.00511868899386636</v>
       </c>
       <c r="M17" t="n">
-        <v>10.96457468157504</v>
+        <v>10.96284013710473</v>
       </c>
       <c r="N17" t="n">
-        <v>202.509202301729</v>
+        <v>202.2651804084159</v>
       </c>
       <c r="O17" t="n">
-        <v>14.23057280300863</v>
+        <v>14.221996358051</v>
       </c>
       <c r="P17" t="n">
-        <v>307.5772924681438</v>
+        <v>307.5215008468039</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30031,7 +30101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R418"/>
+  <dimension ref="A1:R419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66231,6 +66301,98 @@
         </is>
       </c>
     </row>
+    <row r="419">
+      <c r="A419" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:53:29+00:00</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>-38.205727461048916,178.33389453269245</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>-38.206432432081996,178.33393394022443</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>-38.207137574196594,178.3339701974592</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>-38.207841177468,178.33403358012296</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>-38.20854419452058,178.3341072207288</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>-38.209233719560004,178.3342200856548</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>-38.209930996219015,178.3342943252614</t>
+        </is>
+      </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>-38.21063099898169,178.33413170563654</t>
+        </is>
+      </c>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>-38.21133346347589,178.33403335155793</t>
+        </is>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>-38.21202504904737,178.33383009731853</t>
+        </is>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>-38.21269813377351,178.33367408456314</t>
+        </is>
+      </c>
+      <c r="M419" t="inlineStr">
+        <is>
+          <t>-38.21336828878878,178.3334561019145</t>
+        </is>
+      </c>
+      <c r="N419" t="inlineStr">
+        <is>
+          <t>-38.2140838265249,178.33343013837862</t>
+        </is>
+      </c>
+      <c r="O419" t="inlineStr">
+        <is>
+          <t>-38.2148001053957,178.33333113468825</t>
+        </is>
+      </c>
+      <c r="P419" t="inlineStr">
+        <is>
+          <t>-38.2155242186121,178.3333450128054</t>
+        </is>
+      </c>
+      <c r="Q419" t="inlineStr">
+        <is>
+          <t>-38.21625781011901,178.3334480861811</t>
+        </is>
+      </c>
+      <c r="R419" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0249/nzd0249.xlsx
+++ b/data/nzd0249/nzd0249.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R419"/>
+  <dimension ref="A1:R421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24476,6 +24476,126 @@
         </is>
       </c>
     </row>
+    <row r="420">
+      <c r="A420" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:53:08+00:00</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>315.5354545454546</v>
+      </c>
+      <c r="C420" t="n">
+        <v>317.7033333333333</v>
+      </c>
+      <c r="D420" t="n">
+        <v>317.7854545454546</v>
+      </c>
+      <c r="E420" t="n">
+        <v>322.03</v>
+      </c>
+      <c r="F420" t="n">
+        <v>321.8154545454545</v>
+      </c>
+      <c r="G420" t="n">
+        <v>327.7044444444444</v>
+      </c>
+      <c r="H420" t="n">
+        <v>340.87</v>
+      </c>
+      <c r="I420" t="n">
+        <v>339.4185714285715</v>
+      </c>
+      <c r="J420" t="n">
+        <v>336.02</v>
+      </c>
+      <c r="K420" t="n">
+        <v>321.06</v>
+      </c>
+      <c r="L420" t="n">
+        <v>307.36</v>
+      </c>
+      <c r="M420" t="n">
+        <v>316.65</v>
+      </c>
+      <c r="N420" t="n">
+        <v>326.29</v>
+      </c>
+      <c r="O420" t="n">
+        <v>333.2233333333333</v>
+      </c>
+      <c r="P420" t="n">
+        <v>328.615</v>
+      </c>
+      <c r="Q420" t="n">
+        <v>319.9766666666666</v>
+      </c>
+      <c r="R420" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:53:09+00:00</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>310.3</v>
+      </c>
+      <c r="C421" t="n">
+        <v>309.0166666666667</v>
+      </c>
+      <c r="D421" t="n">
+        <v>306.21</v>
+      </c>
+      <c r="E421" t="n">
+        <v>309.39</v>
+      </c>
+      <c r="F421" t="n">
+        <v>320.4</v>
+      </c>
+      <c r="G421" t="n">
+        <v>322.9922222222222</v>
+      </c>
+      <c r="H421" t="n">
+        <v>330.35</v>
+      </c>
+      <c r="I421" t="n">
+        <v>313.2685714285714</v>
+      </c>
+      <c r="J421" t="n">
+        <v>315.91</v>
+      </c>
+      <c r="K421" t="n">
+        <v>301.82</v>
+      </c>
+      <c r="L421" t="n">
+        <v>297.67</v>
+      </c>
+      <c r="M421" t="n">
+        <v>296.71</v>
+      </c>
+      <c r="N421" t="n">
+        <v>318.16</v>
+      </c>
+      <c r="O421" t="n">
+        <v>335.2866666666667</v>
+      </c>
+      <c r="P421" t="n">
+        <v>324.02</v>
+      </c>
+      <c r="Q421" t="n">
+        <v>310.8833333333333</v>
+      </c>
+      <c r="R421" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24487,7 +24607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B421"/>
+  <dimension ref="A1:B423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28705,6 +28825,26 @@
       </c>
       <c r="B421" t="n">
         <v>0.42</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>-0.44</v>
       </c>
     </row>
   </sheetData>
@@ -28878,28 +29018,28 @@
         <v>0.0653</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03794495419203245</v>
+        <v>0.03771442621314158</v>
       </c>
       <c r="J2" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K2" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003525134207347236</v>
+        <v>0.0003526208328290537</v>
       </c>
       <c r="M2" t="n">
-        <v>11.74480241039002</v>
+        <v>11.6935857361955</v>
       </c>
       <c r="N2" t="n">
-        <v>225.6775850712981</v>
+        <v>224.4519126486068</v>
       </c>
       <c r="O2" t="n">
-        <v>15.02256919009855</v>
+        <v>14.98171928213203</v>
       </c>
       <c r="P2" t="n">
-        <v>312.1402842525488</v>
+        <v>312.1425328642559</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28956,28 +29096,28 @@
         <v>0.0682</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0860152771088591</v>
+        <v>0.08559690170063022</v>
       </c>
       <c r="J3" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K3" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002532633325311728</v>
+        <v>0.002538067961242563</v>
       </c>
       <c r="M3" t="n">
-        <v>10.00263461514702</v>
+        <v>9.971325894910095</v>
       </c>
       <c r="N3" t="n">
-        <v>161.9958972747871</v>
+        <v>161.2059198001351</v>
       </c>
       <c r="O3" t="n">
-        <v>12.72776089006967</v>
+        <v>12.69668932439221</v>
       </c>
       <c r="P3" t="n">
-        <v>311.5117385004572</v>
+        <v>311.5157905580208</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29028,28 +29168,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.2355562925758078</v>
+        <v>0.2308426159962458</v>
       </c>
       <c r="J4" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K4" t="n">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01972980234142607</v>
+        <v>0.01915599195027484</v>
       </c>
       <c r="M4" t="n">
-        <v>9.414755077829117</v>
+        <v>9.396159450782894</v>
       </c>
       <c r="N4" t="n">
-        <v>146.8589385705104</v>
+        <v>146.3512361940232</v>
       </c>
       <c r="O4" t="n">
-        <v>12.11853698143923</v>
+        <v>12.09757149985166</v>
       </c>
       <c r="P4" t="n">
-        <v>310.208674034595</v>
+        <v>310.2555944335171</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29106,28 +29246,28 @@
         <v>0.0546</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1522845108910667</v>
+        <v>0.1495125767460201</v>
       </c>
       <c r="J5" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K5" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007381726401244459</v>
+        <v>0.007192119275776121</v>
       </c>
       <c r="M5" t="n">
-        <v>10.13061948715759</v>
+        <v>10.11195103895129</v>
       </c>
       <c r="N5" t="n">
-        <v>167.1778586633496</v>
+        <v>166.5477753572598</v>
       </c>
       <c r="O5" t="n">
-        <v>12.92972771033287</v>
+        <v>12.90533902527399</v>
       </c>
       <c r="P5" t="n">
-        <v>314.3580077908051</v>
+        <v>314.3854537659604</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29184,28 +29324,28 @@
         <v>0.0602</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1808472204087007</v>
+        <v>0.1763917677883572</v>
       </c>
       <c r="J6" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K6" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009931869391136994</v>
+        <v>0.009560710812738682</v>
       </c>
       <c r="M6" t="n">
-        <v>10.24114155971468</v>
+        <v>10.21207889170954</v>
       </c>
       <c r="N6" t="n">
-        <v>177.7685553694305</v>
+        <v>176.9453962035126</v>
       </c>
       <c r="O6" t="n">
-        <v>13.33298748853499</v>
+        <v>13.3020824010195</v>
       </c>
       <c r="P6" t="n">
-        <v>320.6636033150391</v>
+        <v>320.7069181918828</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29262,28 +29402,28 @@
         <v>0.0495</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3524236457379569</v>
+        <v>0.3439042556944212</v>
       </c>
       <c r="J7" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K7" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0396599306411628</v>
+        <v>0.03818239919476396</v>
       </c>
       <c r="M7" t="n">
-        <v>9.974494405444016</v>
+        <v>9.96533372803129</v>
       </c>
       <c r="N7" t="n">
-        <v>165.0723082678209</v>
+        <v>164.5846117923749</v>
       </c>
       <c r="O7" t="n">
-        <v>12.84804686587891</v>
+        <v>12.82905342542367</v>
       </c>
       <c r="P7" t="n">
-        <v>324.4131385651493</v>
+        <v>324.4963398460248</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29340,28 +29480,28 @@
         <v>0.0528</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3155069387880466</v>
+        <v>0.3101655716455892</v>
       </c>
       <c r="J8" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K8" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03298090545204713</v>
+        <v>0.03222166348940236</v>
       </c>
       <c r="M8" t="n">
-        <v>9.777745468501465</v>
+        <v>9.755714998667699</v>
       </c>
       <c r="N8" t="n">
-        <v>157.0789578498988</v>
+        <v>156.5453102421802</v>
       </c>
       <c r="O8" t="n">
-        <v>12.5331144513205</v>
+        <v>12.51180683363439</v>
       </c>
       <c r="P8" t="n">
-        <v>332.5332465542672</v>
+        <v>332.5858748530217</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29418,28 +29558,28 @@
         <v>0.0373</v>
       </c>
       <c r="I9" t="n">
-        <v>0.170339989903256</v>
+        <v>0.1569771129107545</v>
       </c>
       <c r="J9" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K9" t="n">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009116865401795349</v>
+        <v>0.007767481351265038</v>
       </c>
       <c r="M9" t="n">
-        <v>10.14199126003012</v>
+        <v>10.16164510246362</v>
       </c>
       <c r="N9" t="n">
-        <v>172.5253418053542</v>
+        <v>173.3499361051456</v>
       </c>
       <c r="O9" t="n">
-        <v>13.13489024717581</v>
+        <v>13.16624229251253</v>
       </c>
       <c r="P9" t="n">
-        <v>334.8399430701529</v>
+        <v>334.9698517035282</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29496,28 +29636,28 @@
         <v>0.0436</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1244676148149974</v>
+        <v>0.1154124041501133</v>
       </c>
       <c r="J10" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K10" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005789771593727622</v>
+        <v>0.005010683778201241</v>
       </c>
       <c r="M10" t="n">
-        <v>9.666013824331467</v>
+        <v>9.670896618998363</v>
       </c>
       <c r="N10" t="n">
-        <v>147.0431596202951</v>
+        <v>147.1874312350959</v>
       </c>
       <c r="O10" t="n">
-        <v>12.12613539509992</v>
+        <v>12.13208272454058</v>
       </c>
       <c r="P10" t="n">
-        <v>331.4240143658026</v>
+        <v>331.5111566499858</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29574,28 +29714,28 @@
         <v>0.0432</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01655525130949448</v>
+        <v>0.005031433283010576</v>
       </c>
       <c r="J11" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K11" t="n">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L11" t="n">
-        <v>8.486478716218659e-05</v>
+        <v>7.88282205532731e-06</v>
       </c>
       <c r="M11" t="n">
-        <v>10.60194035433561</v>
+        <v>10.60447741563203</v>
       </c>
       <c r="N11" t="n">
-        <v>175.6089919472398</v>
+        <v>175.8088516051278</v>
       </c>
       <c r="O11" t="n">
-        <v>13.25175429696913</v>
+        <v>13.25929302810402</v>
       </c>
       <c r="P11" t="n">
-        <v>322.1930967995485</v>
+        <v>322.3051521856829</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29652,28 +29792,28 @@
         <v>0.0454</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05210581822595652</v>
+        <v>0.03665411679076188</v>
       </c>
       <c r="J12" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K12" t="n">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0007823797438369917</v>
+        <v>0.0003893558635233996</v>
       </c>
       <c r="M12" t="n">
-        <v>10.88368385376732</v>
+        <v>10.89983537156634</v>
       </c>
       <c r="N12" t="n">
-        <v>187.226815130134</v>
+        <v>187.5025775079766</v>
       </c>
       <c r="O12" t="n">
-        <v>13.68308500047171</v>
+        <v>13.69315805458976</v>
       </c>
       <c r="P12" t="n">
-        <v>316.0841810143232</v>
+        <v>316.235060856191</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29730,28 +29870,28 @@
         <v>0.0454</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.03494910426396822</v>
+        <v>-0.04432130067892206</v>
       </c>
       <c r="J13" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K13" t="n">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L13" t="n">
-        <v>0.000271705002108269</v>
+        <v>0.0004403079869809146</v>
       </c>
       <c r="M13" t="n">
-        <v>12.33903608498261</v>
+        <v>12.32531923628301</v>
       </c>
       <c r="N13" t="n">
-        <v>247.0596779350052</v>
+        <v>246.7385797284252</v>
       </c>
       <c r="O13" t="n">
-        <v>15.71813213887087</v>
+        <v>15.70791455694947</v>
       </c>
       <c r="P13" t="n">
-        <v>316.8025939099531</v>
+        <v>316.8934511928636</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29808,28 +29948,28 @@
         <v>0.0563</v>
       </c>
       <c r="I14" t="n">
-        <v>0.004124832098547993</v>
+        <v>0.001436236305767828</v>
       </c>
       <c r="J14" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K14" t="n">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L14" t="n">
-        <v>5.145503994441469e-06</v>
+        <v>6.308099362861697e-07</v>
       </c>
       <c r="M14" t="n">
-        <v>10.45110457996829</v>
+        <v>10.41896508191013</v>
       </c>
       <c r="N14" t="n">
-        <v>178.5846014429426</v>
+        <v>177.7950309819583</v>
       </c>
       <c r="O14" t="n">
-        <v>13.36355497025184</v>
+        <v>13.33398031279326</v>
       </c>
       <c r="P14" t="n">
-        <v>324.692478545217</v>
+        <v>324.7188376501277</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29886,28 +30026,28 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.034154640623259</v>
+        <v>0.03254138566487638</v>
       </c>
       <c r="J15" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K15" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0003613871365181209</v>
+        <v>0.0003319623115340953</v>
       </c>
       <c r="M15" t="n">
-        <v>10.57908134387862</v>
+        <v>10.53111849244611</v>
       </c>
       <c r="N15" t="n">
-        <v>179.7241648173922</v>
+        <v>178.7885547679181</v>
       </c>
       <c r="O15" t="n">
-        <v>13.40612415343795</v>
+        <v>13.37118374594853</v>
       </c>
       <c r="P15" t="n">
-        <v>334.9016935097258</v>
+        <v>334.9172588205133</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29964,28 +30104,28 @@
         <v>0.09619999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02308994129753211</v>
+        <v>0.0277291982238978</v>
       </c>
       <c r="J16" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K16" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001433960691619163</v>
+        <v>0.0002090919781979617</v>
       </c>
       <c r="M16" t="n">
-        <v>11.38452231930176</v>
+        <v>11.34848016390585</v>
       </c>
       <c r="N16" t="n">
-        <v>203.4813450742452</v>
+        <v>202.5418806496577</v>
       </c>
       <c r="O16" t="n">
-        <v>14.2646887478923</v>
+        <v>14.23172093071171</v>
       </c>
       <c r="P16" t="n">
-        <v>321.2980613335952</v>
+        <v>321.2525211620356</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30042,28 +30182,28 @@
         <v>0.0847</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1391441542862305</v>
+        <v>0.143704905077665</v>
       </c>
       <c r="J17" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K17" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00511868899386636</v>
+        <v>0.005516394870928365</v>
       </c>
       <c r="M17" t="n">
-        <v>10.96284013710473</v>
+        <v>10.92890443902548</v>
       </c>
       <c r="N17" t="n">
-        <v>202.2651804084159</v>
+        <v>201.4125279076302</v>
       </c>
       <c r="O17" t="n">
-        <v>14.221996358051</v>
+        <v>14.19198815908575</v>
       </c>
       <c r="P17" t="n">
-        <v>307.5215008468039</v>
+        <v>307.4762112100566</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30101,7 +30241,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R419"/>
+  <dimension ref="A1:R421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31307,7 +31447,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>-38.2099222377896,178.33405466951942</t>
+          <t>-38.20992223778959,178.33405466951942</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -34230,7 +34370,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>-38.21203620206403,178.33402164890208</t>
+          <t>-38.21203620206402,178.33402164890208</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -66393,6 +66533,190 @@
         </is>
       </c>
     </row>
+    <row r="420">
+      <c r="A420" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:53:08+00:00</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>-38.20573075357437,178.33383623456442</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>-38.20643484920486,178.333891142406</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>-38.20714027643239,178.33392235158686</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>-38.207843025664424,178.3340008562102</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>-38.208548629562856,178.3340286949833</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>-38.20923468550114,178.3341263521496</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>-38.20992766507997,178.33420317414587</t>
+        </is>
+      </c>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>-38.21063020066847,178.33411029634223</t>
+        </is>
+      </c>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>-38.21133204202487,178.3339952306125</t>
+        </is>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>-38.2120203787097,178.3337498865196</t>
+        </is>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>-38.21267473079884,178.33347751421212</t>
+        </is>
+      </c>
+      <c r="M420" t="inlineStr">
+        <is>
+          <t>-38.21335555133218,178.33337614582044</t>
+        </is>
+      </c>
+      <c r="N420" t="inlineStr">
+        <is>
+          <t>-38.214058725296844,178.3332725696977</t>
+        </is>
+      </c>
+      <c r="O420" t="inlineStr">
+        <is>
+          <t>-38.21480122620077,178.33312838865103</t>
+        </is>
+      </c>
+      <c r="P420" t="inlineStr">
+        <is>
+          <t>-38.21554829913679,178.33324123385972</t>
+        </is>
+      </c>
+      <c r="Q420" t="inlineStr">
+        <is>
+          <t>-38.21626261104056,178.3334314683824</t>
+        </is>
+      </c>
+      <c r="R420" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:53:09+00:00</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>-38.20573411315746,178.3337767485669</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>-38.206440423501725,178.33379244228655</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>-38.20714770456425,178.3337908270549</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>-38.20785113708616,178.3338572345607</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>-38.208549537917506,178.33401261176826</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>-38.20923523860754,178.33407267623372</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>-38.209923289991806,178.3340834600715</t>
+        </is>
+      </c>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>-38.21061910449264,178.33381272828535</t>
+        </is>
+      </c>
+      <c r="J421" t="inlineStr">
+        <is>
+          <t>-38.21132350881171,178.33376639114678</t>
+        </is>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>-38.21200765076378,178.33353129507023</t>
+        </is>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>-38.21266173495996,178.33336835856548</t>
+        </is>
+      </c>
+      <c r="M421" t="inlineStr">
+        <is>
+          <t>-38.213320078283495,178.3331534749139</t>
+        </is>
+      </c>
+      <c r="N421" t="inlineStr">
+        <is>
+          <t>-38.2140442621928,178.33318178069467</t>
+        </is>
+      </c>
+      <c r="O421" t="inlineStr">
+        <is>
+          <t>-38.21480109627342,178.33315189489005</t>
+        </is>
+      </c>
+      <c r="P421" t="inlineStr">
+        <is>
+          <t>-38.215559952608444,178.33319101116103</t>
+        </is>
+      </c>
+      <c r="Q421" t="inlineStr">
+        <is>
+          <t>-38.216290715961925,178.33333418645626</t>
+        </is>
+      </c>
+      <c r="R421" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0249/nzd0249.xlsx
+++ b/data/nzd0249/nzd0249.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R421"/>
+  <dimension ref="A1:R422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24596,6 +24596,66 @@
         </is>
       </c>
     </row>
+    <row r="422">
+      <c r="A422" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:53:44+00:00</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>319.0163636363636</v>
+      </c>
+      <c r="C422" t="n">
+        <v>320.77</v>
+      </c>
+      <c r="D422" t="n">
+        <v>318.9563636363636</v>
+      </c>
+      <c r="E422" t="n">
+        <v>321.83</v>
+      </c>
+      <c r="F422" t="n">
+        <v>325.8663636363636</v>
+      </c>
+      <c r="G422" t="n">
+        <v>339.4633333333333</v>
+      </c>
+      <c r="H422" t="n">
+        <v>335.06</v>
+      </c>
+      <c r="I422" t="n">
+        <v>335.86</v>
+      </c>
+      <c r="J422" t="n">
+        <v>336.25</v>
+      </c>
+      <c r="K422" t="n">
+        <v>318.12</v>
+      </c>
+      <c r="L422" t="n">
+        <v>308.96</v>
+      </c>
+      <c r="M422" t="n">
+        <v>314.93</v>
+      </c>
+      <c r="N422" t="n">
+        <v>331.47</v>
+      </c>
+      <c r="O422" t="n">
+        <v>336.56</v>
+      </c>
+      <c r="P422" t="n">
+        <v>327.52</v>
+      </c>
+      <c r="Q422" t="n">
+        <v>316.15</v>
+      </c>
+      <c r="R422" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24607,7 +24667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B423"/>
+  <dimension ref="A1:B424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28845,6 +28905,16 @@
       </c>
       <c r="B423" t="n">
         <v>-0.44</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>0.42</v>
       </c>
     </row>
   </sheetData>
@@ -29018,28 +29088,28 @@
         <v>0.0653</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03771442621314158</v>
+        <v>0.04100398596325412</v>
       </c>
       <c r="J2" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K2" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003526208328290537</v>
+        <v>0.0004192245106922066</v>
       </c>
       <c r="M2" t="n">
-        <v>11.6935857361955</v>
+        <v>11.67850418312938</v>
       </c>
       <c r="N2" t="n">
-        <v>224.4519126486068</v>
+        <v>223.9212535343669</v>
       </c>
       <c r="O2" t="n">
-        <v>14.98171928213203</v>
+        <v>14.96399858107341</v>
       </c>
       <c r="P2" t="n">
-        <v>312.1425328642559</v>
+        <v>312.1106032192657</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29096,28 +29166,28 @@
         <v>0.0682</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08559690170063022</v>
+        <v>0.08946812659319614</v>
       </c>
       <c r="J3" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K3" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002538067961242563</v>
+        <v>0.002787043264229405</v>
       </c>
       <c r="M3" t="n">
-        <v>9.971325894910095</v>
+        <v>9.963518252008964</v>
       </c>
       <c r="N3" t="n">
-        <v>161.2059198001351</v>
+        <v>160.8971438263492</v>
       </c>
       <c r="O3" t="n">
-        <v>12.69668932439221</v>
+        <v>12.68452379186342</v>
       </c>
       <c r="P3" t="n">
-        <v>311.5157905580208</v>
+        <v>311.478457345074</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29168,28 +29238,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.2308426159962458</v>
+        <v>0.232329386036705</v>
       </c>
       <c r="J4" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K4" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01915599195027484</v>
+        <v>0.01951135795506609</v>
       </c>
       <c r="M4" t="n">
-        <v>9.396159450782894</v>
+        <v>9.378134569515675</v>
       </c>
       <c r="N4" t="n">
-        <v>146.3512361940232</v>
+        <v>145.9816470018095</v>
       </c>
       <c r="O4" t="n">
-        <v>12.09757149985166</v>
+        <v>12.08228649725744</v>
       </c>
       <c r="P4" t="n">
-        <v>310.2555944335171</v>
+        <v>310.2407831454844</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29246,28 +29316,28 @@
         <v>0.0546</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1495125767460201</v>
+        <v>0.1514172620954334</v>
       </c>
       <c r="J5" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K5" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007192119275776121</v>
+        <v>0.007417236900674307</v>
       </c>
       <c r="M5" t="n">
-        <v>10.11195103895129</v>
+        <v>10.09401656025873</v>
       </c>
       <c r="N5" t="n">
-        <v>166.5477753572598</v>
+        <v>166.1470954383082</v>
       </c>
       <c r="O5" t="n">
-        <v>12.90533902527399</v>
+        <v>12.88980587279375</v>
       </c>
       <c r="P5" t="n">
-        <v>314.3854537659604</v>
+        <v>314.3665897076566</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29324,28 +29394,28 @@
         <v>0.0602</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1763917677883572</v>
+        <v>0.1767043667275394</v>
       </c>
       <c r="J6" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K6" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009560710812738682</v>
+        <v>0.009650606649946547</v>
       </c>
       <c r="M6" t="n">
-        <v>10.21207889170954</v>
+        <v>10.18721226896219</v>
       </c>
       <c r="N6" t="n">
-        <v>176.9453962035126</v>
+        <v>176.4914312266384</v>
       </c>
       <c r="O6" t="n">
-        <v>13.3020824010195</v>
+        <v>13.2850077616326</v>
       </c>
       <c r="P6" t="n">
-        <v>320.7069181918828</v>
+        <v>320.7038749634517</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29402,28 +29472,28 @@
         <v>0.0495</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3439042556944212</v>
+        <v>0.347051862242365</v>
       </c>
       <c r="J7" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K7" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03818239919476396</v>
+        <v>0.03905211071248627</v>
       </c>
       <c r="M7" t="n">
-        <v>9.96533372803129</v>
+        <v>9.954859558514819</v>
       </c>
       <c r="N7" t="n">
-        <v>164.5846117923749</v>
+        <v>164.2529195647365</v>
       </c>
       <c r="O7" t="n">
-        <v>12.82905342542367</v>
+        <v>12.81611952053883</v>
       </c>
       <c r="P7" t="n">
-        <v>324.4963398460248</v>
+        <v>324.4655581155467</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29480,28 +29550,28 @@
         <v>0.0528</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3101655716455892</v>
+        <v>0.3072638185395881</v>
       </c>
       <c r="J8" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K8" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03222166348940236</v>
+        <v>0.0318047149522882</v>
       </c>
       <c r="M8" t="n">
-        <v>9.755714998667699</v>
+        <v>9.745575715915987</v>
       </c>
       <c r="N8" t="n">
-        <v>156.5453102421802</v>
+        <v>156.2230297272265</v>
       </c>
       <c r="O8" t="n">
-        <v>12.51180683363439</v>
+        <v>12.49892114253172</v>
       </c>
       <c r="P8" t="n">
-        <v>332.5858748530217</v>
+        <v>332.6144929915941</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29558,28 +29628,28 @@
         <v>0.0373</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1569771129107545</v>
+        <v>0.1553451269317074</v>
       </c>
       <c r="J9" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K9" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L9" t="n">
-        <v>0.007767481351265038</v>
+        <v>0.00765083838618974</v>
       </c>
       <c r="M9" t="n">
-        <v>10.16164510246362</v>
+        <v>10.14443686123321</v>
       </c>
       <c r="N9" t="n">
-        <v>173.3499361051456</v>
+        <v>172.935261203764</v>
       </c>
       <c r="O9" t="n">
-        <v>13.16624229251253</v>
+        <v>13.15048520792157</v>
       </c>
       <c r="P9" t="n">
-        <v>334.9698517035282</v>
+        <v>334.9857327484351</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29636,28 +29706,28 @@
         <v>0.0436</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1154124041501133</v>
+        <v>0.1163215149044022</v>
       </c>
       <c r="J10" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K10" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005010683778201241</v>
+        <v>0.005119148591161915</v>
       </c>
       <c r="M10" t="n">
-        <v>9.670896618998363</v>
+        <v>9.650270226325603</v>
       </c>
       <c r="N10" t="n">
-        <v>147.1874312350959</v>
+        <v>146.8178447265979</v>
       </c>
       <c r="O10" t="n">
-        <v>12.13208272454058</v>
+        <v>12.11684136755937</v>
       </c>
       <c r="P10" t="n">
-        <v>331.5111566499858</v>
+        <v>331.5023999017892</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29714,28 +29784,28 @@
         <v>0.0432</v>
       </c>
       <c r="I11" t="n">
-        <v>0.005031433283010576</v>
+        <v>0.002821369788378697</v>
       </c>
       <c r="J11" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K11" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L11" t="n">
-        <v>7.88282205532731e-06</v>
+        <v>2.492427547240439e-06</v>
       </c>
       <c r="M11" t="n">
-        <v>10.60447741563203</v>
+        <v>10.58862906425167</v>
       </c>
       <c r="N11" t="n">
-        <v>175.8088516051278</v>
+        <v>175.4154993784874</v>
       </c>
       <c r="O11" t="n">
-        <v>13.25929302810402</v>
+        <v>13.24445164506585</v>
       </c>
       <c r="P11" t="n">
-        <v>322.3051521856829</v>
+        <v>322.3266647439485</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29792,28 +29862,28 @@
         <v>0.0454</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03665411679076188</v>
+        <v>0.03241893293991683</v>
       </c>
       <c r="J12" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K12" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0003893558635233996</v>
+        <v>0.000306106467286682</v>
       </c>
       <c r="M12" t="n">
-        <v>10.89983537156634</v>
+        <v>10.89208365450063</v>
       </c>
       <c r="N12" t="n">
-        <v>187.5025775079766</v>
+        <v>187.2014727321431</v>
       </c>
       <c r="O12" t="n">
-        <v>13.69315805458976</v>
+        <v>13.68215892073116</v>
       </c>
       <c r="P12" t="n">
-        <v>316.235060856191</v>
+        <v>316.2764690728391</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29870,28 +29940,28 @@
         <v>0.0454</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.04432130067892206</v>
+        <v>-0.04473392955415837</v>
       </c>
       <c r="J13" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K13" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0004403079869809146</v>
+        <v>0.0004510980606743376</v>
       </c>
       <c r="M13" t="n">
-        <v>12.32531923628301</v>
+        <v>12.29645107262785</v>
       </c>
       <c r="N13" t="n">
-        <v>246.7385797284252</v>
+        <v>246.1233883082293</v>
       </c>
       <c r="O13" t="n">
-        <v>15.70791455694947</v>
+        <v>15.68832012384466</v>
       </c>
       <c r="P13" t="n">
-        <v>316.8934511928636</v>
+        <v>316.8974551614987</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29948,28 +30018,28 @@
         <v>0.0563</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001436236305767828</v>
+        <v>0.004918278810759669</v>
       </c>
       <c r="J14" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K14" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L14" t="n">
-        <v>6.308099362861697e-07</v>
+        <v>7.435732290228536e-06</v>
       </c>
       <c r="M14" t="n">
-        <v>10.41896508191013</v>
+        <v>10.40911108588107</v>
       </c>
       <c r="N14" t="n">
-        <v>177.7950309819583</v>
+        <v>177.4580880376256</v>
       </c>
       <c r="O14" t="n">
-        <v>13.33398031279326</v>
+        <v>13.32133957369249</v>
       </c>
       <c r="P14" t="n">
-        <v>324.7188376501277</v>
+        <v>324.6846760589408</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30026,28 +30096,28 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03254138566487638</v>
+        <v>0.03296185056044949</v>
       </c>
       <c r="J15" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K15" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0003319623115340953</v>
+        <v>0.0003426019829375626</v>
       </c>
       <c r="M15" t="n">
-        <v>10.53111849244611</v>
+        <v>10.50534651025095</v>
       </c>
       <c r="N15" t="n">
-        <v>178.7885547679181</v>
+        <v>178.3172520375139</v>
       </c>
       <c r="O15" t="n">
-        <v>13.37118374594853</v>
+        <v>13.35354829389979</v>
       </c>
       <c r="P15" t="n">
-        <v>334.9172588205133</v>
+        <v>334.9131944094663</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30104,28 +30174,28 @@
         <v>0.09619999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0277291982238978</v>
+        <v>0.03062578351152503</v>
       </c>
       <c r="J16" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K16" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0002090919781979617</v>
+        <v>0.0002564222262648741</v>
       </c>
       <c r="M16" t="n">
-        <v>11.34848016390585</v>
+        <v>11.33348920298141</v>
       </c>
       <c r="N16" t="n">
-        <v>202.5418806496577</v>
+        <v>202.0916322047994</v>
       </c>
       <c r="O16" t="n">
-        <v>14.23172093071171</v>
+        <v>14.21589364777323</v>
       </c>
       <c r="P16" t="n">
-        <v>321.2525211620356</v>
+        <v>321.2240369350288</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30182,28 +30252,28 @@
         <v>0.0847</v>
       </c>
       <c r="I17" t="n">
-        <v>0.143704905077665</v>
+        <v>0.1463136322190708</v>
       </c>
       <c r="J17" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K17" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L17" t="n">
-        <v>0.005516394870928365</v>
+        <v>0.005748629591721288</v>
       </c>
       <c r="M17" t="n">
-        <v>10.92890443902548</v>
+        <v>10.91299224808053</v>
       </c>
       <c r="N17" t="n">
-        <v>201.4125279076302</v>
+        <v>200.9514575485386</v>
       </c>
       <c r="O17" t="n">
-        <v>14.19198815908575</v>
+        <v>14.17573481511765</v>
       </c>
       <c r="P17" t="n">
-        <v>307.4762112100566</v>
+        <v>307.4502537394693</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30241,7 +30311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R421"/>
+  <dimension ref="A1:R422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66717,6 +66787,98 @@
         </is>
       </c>
     </row>
+    <row r="422">
+      <c r="A422" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:53:44+00:00</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>-38.20572851986383,178.33387578515575</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>-38.206432881283,178.3339259866479</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>-38.20713952503544,178.3339356558801</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>-38.20784315401106,178.33399858371615</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>-38.20854602991798,178.33407472375683</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>-38.20923330517094,178.33426029512282</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>-38.2099252488156,178.334137058293</t>
+        </is>
+      </c>
+      <c r="I422" t="inlineStr">
+        <is>
+          <t>-38.210628690712134,178.3340698023771</t>
+        </is>
+      </c>
+      <c r="J422" t="inlineStr">
+        <is>
+          <t>-38.21133213961743,178.33399784787144</t>
+        </is>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>-38.21201843382175,178.33371648429002</t>
+        </is>
+      </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>-38.2126768766445,178.33349553785092</t>
+        </is>
+      </c>
+      <c r="M422" t="inlineStr">
+        <is>
+          <t>-38.21335249148777,178.33335693849384</t>
+        </is>
+      </c>
+      <c r="N422" t="inlineStr">
+        <is>
+          <t>-38.214067940372885,178.3333304155962</t>
+        </is>
+      </c>
+      <c r="O422" t="inlineStr">
+        <is>
+          <t>-38.214801016089716,178.33316640116323</t>
+        </is>
+      </c>
+      <c r="P422" t="inlineStr">
+        <is>
+          <t>-38.21555107619011,178.33322926566657</t>
+        </is>
+      </c>
+      <c r="Q422" t="inlineStr">
+        <is>
+          <t>-38.2162744381941,178.333390530104</t>
+        </is>
+      </c>
+      <c r="R422" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0249/nzd0249.xlsx
+++ b/data/nzd0249/nzd0249.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R422"/>
+  <dimension ref="A1:R424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24656,6 +24656,126 @@
         </is>
       </c>
     </row>
+    <row r="423">
+      <c r="A423" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:53:26+00:00</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>317.3490909090909</v>
+      </c>
+      <c r="C423" t="n">
+        <v>316.22</v>
+      </c>
+      <c r="D423" t="n">
+        <v>314.5590909090909</v>
+      </c>
+      <c r="E423" t="n">
+        <v>323.66</v>
+      </c>
+      <c r="F423" t="n">
+        <v>329.7290909090909</v>
+      </c>
+      <c r="G423" t="n">
+        <v>334.6866666666667</v>
+      </c>
+      <c r="H423" t="n">
+        <v>343.47</v>
+      </c>
+      <c r="I423" t="n">
+        <v>325.0657142857143</v>
+      </c>
+      <c r="J423" t="n">
+        <v>329.56</v>
+      </c>
+      <c r="K423" t="n">
+        <v>312.6</v>
+      </c>
+      <c r="L423" t="n">
+        <v>313.08</v>
+      </c>
+      <c r="M423" t="n">
+        <v>309.17</v>
+      </c>
+      <c r="N423" t="n">
+        <v>329.28</v>
+      </c>
+      <c r="O423" t="n">
+        <v>346.01</v>
+      </c>
+      <c r="P423" t="n">
+        <v>334.45</v>
+      </c>
+      <c r="Q423" t="n">
+        <v>319.88</v>
+      </c>
+      <c r="R423" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:53:33+00:00</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>318.0636363636364</v>
+      </c>
+      <c r="C424" t="n">
+        <v>321.2766666666667</v>
+      </c>
+      <c r="D424" t="n">
+        <v>321.6736363636364</v>
+      </c>
+      <c r="E424" t="n">
+        <v>321.05</v>
+      </c>
+      <c r="F424" t="n">
+        <v>322.8236363636364</v>
+      </c>
+      <c r="G424" t="n">
+        <v>331.0022222222222</v>
+      </c>
+      <c r="H424" t="n">
+        <v>332.54</v>
+      </c>
+      <c r="I424" t="n">
+        <v>337.0328571428572</v>
+      </c>
+      <c r="J424" t="n">
+        <v>336.45</v>
+      </c>
+      <c r="K424" t="n">
+        <v>317.34</v>
+      </c>
+      <c r="L424" t="n">
+        <v>319.53</v>
+      </c>
+      <c r="M424" t="n">
+        <v>304.92</v>
+      </c>
+      <c r="N424" t="n">
+        <v>329.15</v>
+      </c>
+      <c r="O424" t="n">
+        <v>345.2666666666667</v>
+      </c>
+      <c r="P424" t="n">
+        <v>321.14</v>
+      </c>
+      <c r="Q424" t="n">
+        <v>313.4733333333333</v>
+      </c>
+      <c r="R424" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24667,7 +24787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B424"/>
+  <dimension ref="A1:B426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28915,6 +29035,26 @@
       </c>
       <c r="B424" t="n">
         <v>0.42</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>0.46</v>
       </c>
     </row>
   </sheetData>
@@ -29088,28 +29228,28 @@
         <v>0.0653</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04100398596325412</v>
+        <v>0.04600401600752804</v>
       </c>
       <c r="J2" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K2" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0004192245106922066</v>
+        <v>0.0005339850028587279</v>
       </c>
       <c r="M2" t="n">
-        <v>11.67850418312938</v>
+        <v>11.64005763134035</v>
       </c>
       <c r="N2" t="n">
-        <v>223.9212535343669</v>
+        <v>222.7900139570398</v>
       </c>
       <c r="O2" t="n">
-        <v>14.96399858107341</v>
+        <v>14.9261520144021</v>
       </c>
       <c r="P2" t="n">
-        <v>312.1106032192657</v>
+        <v>312.0618943597714</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29166,28 +29306,28 @@
         <v>0.0682</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08946812659319614</v>
+        <v>0.09485888579700598</v>
       </c>
       <c r="J3" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K3" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002787043264229405</v>
+        <v>0.003167461798752935</v>
       </c>
       <c r="M3" t="n">
-        <v>9.963518252008964</v>
+        <v>9.935922145122142</v>
       </c>
       <c r="N3" t="n">
-        <v>160.8971438263492</v>
+        <v>160.1822735679049</v>
       </c>
       <c r="O3" t="n">
-        <v>12.68452379186342</v>
+        <v>12.65631358523899</v>
       </c>
       <c r="P3" t="n">
-        <v>311.478457345074</v>
+        <v>311.4262462300908</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29238,28 +29378,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.232329386036705</v>
+        <v>0.234333196736377</v>
       </c>
       <c r="J4" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K4" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01951135795506609</v>
+        <v>0.02006673032640849</v>
       </c>
       <c r="M4" t="n">
-        <v>9.378134569515675</v>
+        <v>9.346896968641321</v>
       </c>
       <c r="N4" t="n">
-        <v>145.9816470018095</v>
+        <v>145.2936809600752</v>
       </c>
       <c r="O4" t="n">
-        <v>12.08228649725744</v>
+        <v>12.0537828485532</v>
       </c>
       <c r="P4" t="n">
-        <v>310.2407831454844</v>
+        <v>310.2206976058043</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29316,28 +29456,28 @@
         <v>0.0546</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1514172620954334</v>
+        <v>0.1556933660271035</v>
       </c>
       <c r="J5" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K5" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007417236900674307</v>
+        <v>0.007926828258108309</v>
       </c>
       <c r="M5" t="n">
-        <v>10.09401656025873</v>
+        <v>10.06040217592891</v>
       </c>
       <c r="N5" t="n">
-        <v>166.1470954383082</v>
+        <v>165.3790914974465</v>
       </c>
       <c r="O5" t="n">
-        <v>12.88980587279375</v>
+        <v>12.85998022927899</v>
       </c>
       <c r="P5" t="n">
-        <v>314.3665897076566</v>
+        <v>314.3241153626228</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29394,28 +29534,28 @@
         <v>0.0602</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1767043667275394</v>
+        <v>0.1777187809916211</v>
       </c>
       <c r="J6" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K6" t="n">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009650606649946547</v>
+        <v>0.009871600147793314</v>
       </c>
       <c r="M6" t="n">
-        <v>10.18721226896219</v>
+        <v>10.15231610660128</v>
       </c>
       <c r="N6" t="n">
-        <v>176.4914312266384</v>
+        <v>175.6547570379687</v>
       </c>
       <c r="O6" t="n">
-        <v>13.2850077616326</v>
+        <v>13.25348094041595</v>
       </c>
       <c r="P6" t="n">
-        <v>320.7038749634517</v>
+        <v>320.6940173169222</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29472,28 +29612,28 @@
         <v>0.0495</v>
       </c>
       <c r="I7" t="n">
-        <v>0.347051862242365</v>
+        <v>0.3464045125697734</v>
       </c>
       <c r="J7" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K7" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03905211071248627</v>
+        <v>0.03934128141431226</v>
       </c>
       <c r="M7" t="n">
-        <v>9.954859558514819</v>
+        <v>9.913180546896221</v>
       </c>
       <c r="N7" t="n">
-        <v>164.2529195647365</v>
+        <v>163.4259456483019</v>
       </c>
       <c r="O7" t="n">
-        <v>12.81611952053883</v>
+        <v>12.78381577027383</v>
       </c>
       <c r="P7" t="n">
-        <v>324.4655581155467</v>
+        <v>324.4719392724252</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29550,28 +29690,28 @@
         <v>0.0528</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3072638185395881</v>
+        <v>0.3045741474575457</v>
       </c>
       <c r="J8" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K8" t="n">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0318047149522882</v>
+        <v>0.03158610802918449</v>
       </c>
       <c r="M8" t="n">
-        <v>9.745575715915987</v>
+        <v>9.72441962678662</v>
       </c>
       <c r="N8" t="n">
-        <v>156.2230297272265</v>
+        <v>155.613890107477</v>
       </c>
       <c r="O8" t="n">
-        <v>12.49892114253172</v>
+        <v>12.47452965475961</v>
       </c>
       <c r="P8" t="n">
-        <v>332.6144929915941</v>
+        <v>332.6411918316181</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29628,28 +29768,28 @@
         <v>0.0373</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1553451269317074</v>
+        <v>0.1472412609177983</v>
       </c>
       <c r="J9" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K9" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00765083838618974</v>
+        <v>0.006938394295863404</v>
       </c>
       <c r="M9" t="n">
-        <v>10.14443686123321</v>
+        <v>10.13601500968913</v>
       </c>
       <c r="N9" t="n">
-        <v>172.935261203764</v>
+        <v>172.5576424361615</v>
       </c>
       <c r="O9" t="n">
-        <v>13.15048520792157</v>
+        <v>13.13611976331525</v>
       </c>
       <c r="P9" t="n">
-        <v>334.9857327484351</v>
+        <v>335.0647755326395</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29706,28 +29846,28 @@
         <v>0.0436</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1163215149044022</v>
+        <v>0.1147763366884554</v>
       </c>
       <c r="J10" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K10" t="n">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005119148591161915</v>
+        <v>0.005040804024645129</v>
       </c>
       <c r="M10" t="n">
-        <v>9.650270226325603</v>
+        <v>9.619141376459863</v>
       </c>
       <c r="N10" t="n">
-        <v>146.8178447265979</v>
+        <v>146.1407109131191</v>
       </c>
       <c r="O10" t="n">
-        <v>12.11684136755937</v>
+        <v>12.08886723035368</v>
       </c>
       <c r="P10" t="n">
-        <v>331.5023999017892</v>
+        <v>331.5172839168958</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29784,28 +29924,28 @@
         <v>0.0432</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002821369788378697</v>
+        <v>-0.004708088861605887</v>
       </c>
       <c r="J11" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K11" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L11" t="n">
-        <v>2.492427547240439e-06</v>
+        <v>7.009196889895541e-06</v>
       </c>
       <c r="M11" t="n">
-        <v>10.58862906425167</v>
+        <v>10.57201357318194</v>
       </c>
       <c r="N11" t="n">
-        <v>175.4154993784874</v>
+        <v>174.8408683242252</v>
       </c>
       <c r="O11" t="n">
-        <v>13.24445164506585</v>
+        <v>13.22274057539605</v>
       </c>
       <c r="P11" t="n">
-        <v>322.3266647439485</v>
+        <v>322.400170161147</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29862,28 +30002,28 @@
         <v>0.0454</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03241893293991683</v>
+        <v>0.03159972393832047</v>
       </c>
       <c r="J12" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K12" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L12" t="n">
-        <v>0.000306106467286682</v>
+        <v>0.0002941435213774657</v>
       </c>
       <c r="M12" t="n">
-        <v>10.89208365450063</v>
+        <v>10.85372935902514</v>
       </c>
       <c r="N12" t="n">
-        <v>187.2014727321431</v>
+        <v>186.325063861918</v>
       </c>
       <c r="O12" t="n">
-        <v>13.68215892073116</v>
+        <v>13.6500939140329</v>
       </c>
       <c r="P12" t="n">
-        <v>316.2764690728391</v>
+        <v>316.284458770148</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29940,28 +30080,28 @@
         <v>0.0454</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.04473392955415837</v>
+        <v>-0.05343674250180341</v>
       </c>
       <c r="J13" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K13" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0004510980606743376</v>
+        <v>0.0006498744873588702</v>
       </c>
       <c r="M13" t="n">
-        <v>12.29645107262785</v>
+        <v>12.27669875378493</v>
       </c>
       <c r="N13" t="n">
-        <v>246.1233883082293</v>
+        <v>245.291092582939</v>
       </c>
       <c r="O13" t="n">
-        <v>15.68832012384466</v>
+        <v>15.6617716936156</v>
       </c>
       <c r="P13" t="n">
-        <v>316.8974551614987</v>
+        <v>316.9822268015162</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30018,28 +30158,28 @@
         <v>0.0563</v>
       </c>
       <c r="I14" t="n">
-        <v>0.004918278810759669</v>
+        <v>0.009440087511267488</v>
       </c>
       <c r="J14" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K14" t="n">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L14" t="n">
-        <v>7.435732290228536e-06</v>
+        <v>2.769827057014229e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>10.40911108588107</v>
+        <v>10.37833425164831</v>
       </c>
       <c r="N14" t="n">
-        <v>177.4580880376256</v>
+        <v>176.6601516583731</v>
       </c>
       <c r="O14" t="n">
-        <v>13.32133957369249</v>
+        <v>13.29135627610565</v>
       </c>
       <c r="P14" t="n">
-        <v>324.6846760589408</v>
+        <v>324.6401641154873</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30096,28 +30236,28 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03296185056044949</v>
+        <v>0.04321794275156789</v>
       </c>
       <c r="J15" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K15" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0003426019829375626</v>
+        <v>0.0005940914171593814</v>
       </c>
       <c r="M15" t="n">
-        <v>10.50534651025095</v>
+        <v>10.50037367601225</v>
       </c>
       <c r="N15" t="n">
-        <v>178.3172520375139</v>
+        <v>177.8835364614127</v>
       </c>
       <c r="O15" t="n">
-        <v>13.35354829389979</v>
+        <v>13.33729869431635</v>
       </c>
       <c r="P15" t="n">
-        <v>334.9131944094663</v>
+        <v>334.8137073851513</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30174,28 +30314,28 @@
         <v>0.09619999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03062578351152503</v>
+        <v>0.03657566332374314</v>
       </c>
       <c r="J16" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K16" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0002564222262648741</v>
+        <v>0.0003691973539226012</v>
       </c>
       <c r="M16" t="n">
-        <v>11.33348920298141</v>
+        <v>11.30954894514601</v>
       </c>
       <c r="N16" t="n">
-        <v>202.0916322047994</v>
+        <v>201.4407255606418</v>
       </c>
       <c r="O16" t="n">
-        <v>14.21589364777323</v>
+        <v>14.19298155993454</v>
       </c>
       <c r="P16" t="n">
-        <v>321.2240369350288</v>
+        <v>321.165424422672</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30252,28 +30392,28 @@
         <v>0.0847</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1463136322190708</v>
+        <v>0.1519641542585859</v>
       </c>
       <c r="J17" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K17" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L17" t="n">
-        <v>0.005748629591721288</v>
+        <v>0.006263820162954903</v>
       </c>
       <c r="M17" t="n">
-        <v>10.91299224808053</v>
+        <v>10.88334247376732</v>
       </c>
       <c r="N17" t="n">
-        <v>200.9514575485386</v>
+        <v>200.11384786734</v>
       </c>
       <c r="O17" t="n">
-        <v>14.17573481511765</v>
+        <v>14.14616018102934</v>
       </c>
       <c r="P17" t="n">
-        <v>307.4502537394693</v>
+        <v>307.3938853354989</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30311,7 +30451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R422"/>
+  <dimension ref="A1:R424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66879,6 +67019,190 @@
         </is>
       </c>
     </row>
+    <row r="423">
+      <c r="A423" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:53:26+00:00</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>-38.205729589759734,178.33385684136294</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>-38.206435801076424,178.33387428839657</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>-38.20714234684998,178.3338856924722</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>-38.207841979637706,178.33401937703619</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>-38.2085435510209,178.3341186142946</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>-38.20923386590374,178.3342058851434</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>-38.20992874635644,178.33423276127448</t>
+        </is>
+      </c>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>-38.21062411044477,178.33394697122495</t>
+        </is>
+      </c>
+      <c r="J423" t="inlineStr">
+        <is>
+          <t>-38.21132930092268,178.33392171977457</t>
+        </is>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>-38.212014782169206,178.33365376990162</t>
+        </is>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>-38.2126824021839,178.3335419487243</t>
+        </is>
+      </c>
+      <c r="M423" t="inlineStr">
+        <is>
+          <t>-38.21334224454309,178.33329261629302</t>
+        </is>
+      </c>
+      <c r="N423" t="inlineStr">
+        <is>
+          <t>-38.21406404442738,178.33330595951028</t>
+        </is>
+      </c>
+      <c r="O423" t="inlineStr">
+        <is>
+          <t>-38.2148004209529,178.33327405896839</t>
+        </is>
+      </c>
+      <c r="P423" t="inlineStr">
+        <is>
+          <t>-38.21553350084681,178.33330500955603</t>
+        </is>
+      </c>
+      <c r="Q423" t="inlineStr">
+        <is>
+          <t>-38.21626290981029,178.33343043422747</t>
+        </is>
+      </c>
+      <c r="R423" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:53:33+00:00</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>-38.2057291312333,178.33386496013142</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>-38.20643255614709,178.33393174352236</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>-38.20713778129869,178.3339665305154</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>-38.20784365456253,178.33398972098928</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>-38.20854798257034,178.3340401505291</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>-38.20923429840331,178.33416391642905</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>-38.209924200785586,178.33410838153753</t>
+        </is>
+      </c>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>-38.21062918837494,178.33408314864178</t>
+        </is>
+      </c>
+      <c r="J424" t="inlineStr">
+        <is>
+          <t>-38.211332224480486,178.33400012374878</t>
+        </is>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>-38.21201791782945,178.33370762247415</t>
+        </is>
+      </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>-38.212691052565496,178.33361460653356</t>
+        </is>
+      </c>
+      <c r="M424" t="inlineStr">
+        <is>
+          <t>-38.21333468383986,178.33324515634484</t>
+        </is>
+      </c>
+      <c r="N424" t="inlineStr">
+        <is>
+          <t>-38.21406381316103,178.33330450777922</t>
+        </is>
+      </c>
+      <c r="O424" t="inlineStr">
+        <is>
+          <t>-38.21480046776971,178.3332655906477</t>
+        </is>
+      </c>
+      <c r="P424" t="inlineStr">
+        <is>
+          <t>-38.215567256623785,178.3331595331599</t>
+        </is>
+      </c>
+      <c r="Q424" t="inlineStr">
+        <is>
+          <t>-38.21628271101219,178.33336189469665</t>
+        </is>
+      </c>
+      <c r="R424" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0249/nzd0249.xlsx
+++ b/data/nzd0249/nzd0249.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R424"/>
+  <dimension ref="A1:R426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24776,6 +24776,126 @@
         </is>
       </c>
     </row>
+    <row r="425">
+      <c r="A425" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-12 21:53:43+00:00</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>308.7654545454546</v>
+      </c>
+      <c r="C425" t="n">
+        <v>308.8366666666667</v>
+      </c>
+      <c r="D425" t="n">
+        <v>316.5154545454546</v>
+      </c>
+      <c r="E425" t="n">
+        <v>312.85</v>
+      </c>
+      <c r="F425" t="n">
+        <v>316.2854545454546</v>
+      </c>
+      <c r="G425" t="n">
+        <v>323.5688888888889</v>
+      </c>
+      <c r="H425" t="n">
+        <v>326.99</v>
+      </c>
+      <c r="I425" t="n">
+        <v>333.6814285714286</v>
+      </c>
+      <c r="J425" t="n">
+        <v>326.92</v>
+      </c>
+      <c r="K425" t="n">
+        <v>314.35</v>
+      </c>
+      <c r="L425" t="n">
+        <v>310.71</v>
+      </c>
+      <c r="M425" t="n">
+        <v>306.01</v>
+      </c>
+      <c r="N425" t="n">
+        <v>325.34</v>
+      </c>
+      <c r="O425" t="n">
+        <v>336.0566666666667</v>
+      </c>
+      <c r="P425" t="n">
+        <v>315.97</v>
+      </c>
+      <c r="Q425" t="n">
+        <v>308.7433333333333</v>
+      </c>
+      <c r="R425" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:54:11+00:00</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>305.7336363636364</v>
+      </c>
+      <c r="C426" t="n">
+        <v>303</v>
+      </c>
+      <c r="D426" t="n">
+        <v>307.9736363636364</v>
+      </c>
+      <c r="E426" t="n">
+        <v>315.27</v>
+      </c>
+      <c r="F426" t="n">
+        <v>313.6436363636363</v>
+      </c>
+      <c r="G426" t="n">
+        <v>321.1266666666667</v>
+      </c>
+      <c r="H426" t="n">
+        <v>323.77</v>
+      </c>
+      <c r="I426" t="n">
+        <v>320.6657142857143</v>
+      </c>
+      <c r="J426" t="n">
+        <v>322</v>
+      </c>
+      <c r="K426" t="n">
+        <v>313.01</v>
+      </c>
+      <c r="L426" t="n">
+        <v>303.03</v>
+      </c>
+      <c r="M426" t="n">
+        <v>302.57</v>
+      </c>
+      <c r="N426" t="n">
+        <v>314.6</v>
+      </c>
+      <c r="O426" t="n">
+        <v>330.57</v>
+      </c>
+      <c r="P426" t="n">
+        <v>317.205</v>
+      </c>
+      <c r="Q426" t="n">
+        <v>301.03</v>
+      </c>
+      <c r="R426" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24787,7 +24907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B426"/>
+  <dimension ref="A1:B428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29055,6 +29175,26 @@
       </c>
       <c r="B426" t="n">
         <v>0.46</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>2025-08-12 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>0.57</v>
       </c>
     </row>
   </sheetData>
@@ -29228,28 +29368,28 @@
         <v>0.0653</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04600401600752804</v>
+        <v>0.03943146123735349</v>
       </c>
       <c r="J2" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K2" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0005339850028587279</v>
+        <v>0.0003968756798770068</v>
       </c>
       <c r="M2" t="n">
-        <v>11.64005763134035</v>
+        <v>11.60676989869553</v>
       </c>
       <c r="N2" t="n">
-        <v>222.7900139570398</v>
+        <v>221.7678793344282</v>
       </c>
       <c r="O2" t="n">
-        <v>14.9261520144021</v>
+        <v>14.89187292903173</v>
       </c>
       <c r="P2" t="n">
-        <v>312.0618943597714</v>
+        <v>312.1262206727864</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29306,28 +29446,28 @@
         <v>0.0682</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09485888579700598</v>
+        <v>0.08625264984942153</v>
       </c>
       <c r="J3" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K3" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003167461798752935</v>
+        <v>0.002646112094566555</v>
       </c>
       <c r="M3" t="n">
-        <v>9.935922145122142</v>
+        <v>9.924685781338075</v>
       </c>
       <c r="N3" t="n">
-        <v>160.1822735679049</v>
+        <v>159.696597123312</v>
       </c>
       <c r="O3" t="n">
-        <v>12.65631358523899</v>
+        <v>12.63711189802923</v>
       </c>
       <c r="P3" t="n">
-        <v>311.4262462300908</v>
+        <v>311.5099437591249</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29378,28 +29518,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.234333196736377</v>
+        <v>0.2299634279451672</v>
       </c>
       <c r="J4" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K4" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02006673032640849</v>
+        <v>0.01954401648294346</v>
       </c>
       <c r="M4" t="n">
-        <v>9.346896968641321</v>
+        <v>9.321076840781746</v>
       </c>
       <c r="N4" t="n">
-        <v>145.2936809600752</v>
+        <v>144.7112687168852</v>
       </c>
       <c r="O4" t="n">
-        <v>12.0537828485532</v>
+        <v>12.02959969063332</v>
       </c>
       <c r="P4" t="n">
-        <v>310.2206976058043</v>
+        <v>310.2646110947461</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29456,28 +29596,28 @@
         <v>0.0546</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1556933660271035</v>
+        <v>0.1511796285029033</v>
       </c>
       <c r="J5" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K5" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007926828258108309</v>
+        <v>0.007560469938957093</v>
       </c>
       <c r="M5" t="n">
-        <v>10.06040217592891</v>
+        <v>10.03290769250761</v>
       </c>
       <c r="N5" t="n">
-        <v>165.3790914974465</v>
+        <v>164.6286550934537</v>
       </c>
       <c r="O5" t="n">
-        <v>12.85998022927899</v>
+        <v>12.83076985583693</v>
       </c>
       <c r="P5" t="n">
-        <v>314.3241153626228</v>
+        <v>314.3691544999127</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29534,28 +29674,28 @@
         <v>0.0602</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1777187809916211</v>
+        <v>0.167059449289692</v>
       </c>
       <c r="J6" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K6" t="n">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009871600147793314</v>
+        <v>0.008807915126692323</v>
       </c>
       <c r="M6" t="n">
-        <v>10.15231610660128</v>
+        <v>10.15802821946838</v>
       </c>
       <c r="N6" t="n">
-        <v>175.6547570379687</v>
+        <v>175.3066153076209</v>
       </c>
       <c r="O6" t="n">
-        <v>13.25348094041595</v>
+        <v>13.24034045285924</v>
       </c>
       <c r="P6" t="n">
-        <v>320.6940173169222</v>
+        <v>320.7986131972374</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29612,28 +29752,28 @@
         <v>0.0495</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3464045125697734</v>
+        <v>0.3350470343820176</v>
       </c>
       <c r="J7" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K7" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03934128141431226</v>
+        <v>0.03716818099011665</v>
       </c>
       <c r="M7" t="n">
-        <v>9.913180546896221</v>
+        <v>9.920315968265955</v>
       </c>
       <c r="N7" t="n">
-        <v>163.4259456483019</v>
+        <v>163.2221218621478</v>
       </c>
       <c r="O7" t="n">
-        <v>12.78381577027383</v>
+        <v>12.77584133676322</v>
       </c>
       <c r="P7" t="n">
-        <v>324.4719392724252</v>
+        <v>324.5839120175561</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29690,28 +29830,28 @@
         <v>0.0528</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3045741474575457</v>
+        <v>0.288960638819762</v>
       </c>
       <c r="J8" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K8" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03158610802918449</v>
+        <v>0.02863524715866539</v>
       </c>
       <c r="M8" t="n">
-        <v>9.72441962678662</v>
+        <v>9.754745761129982</v>
       </c>
       <c r="N8" t="n">
-        <v>155.613890107477</v>
+        <v>155.9886142984142</v>
       </c>
       <c r="O8" t="n">
-        <v>12.47452965475961</v>
+        <v>12.48954019563628</v>
       </c>
       <c r="P8" t="n">
-        <v>332.6411918316181</v>
+        <v>332.7963903151368</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29768,28 +29908,28 @@
         <v>0.0373</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1472412609177983</v>
+        <v>0.1353676580510213</v>
       </c>
       <c r="J9" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K9" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006938394295863404</v>
+        <v>0.005907876599846928</v>
       </c>
       <c r="M9" t="n">
-        <v>10.13601500968913</v>
+        <v>10.14699355678993</v>
       </c>
       <c r="N9" t="n">
-        <v>172.5576424361615</v>
+        <v>172.5831094369019</v>
       </c>
       <c r="O9" t="n">
-        <v>13.13611976331525</v>
+        <v>13.13708907775623</v>
       </c>
       <c r="P9" t="n">
-        <v>335.0647755326395</v>
+        <v>335.1812923387035</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29846,28 +29986,28 @@
         <v>0.0436</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1147763366884554</v>
+        <v>0.1045416856073039</v>
       </c>
       <c r="J10" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K10" t="n">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005040804024645129</v>
+        <v>0.004219030866057349</v>
       </c>
       <c r="M10" t="n">
-        <v>9.619141376459863</v>
+        <v>9.624477580402319</v>
       </c>
       <c r="N10" t="n">
-        <v>146.1407109131191</v>
+        <v>145.9334643285215</v>
       </c>
       <c r="O10" t="n">
-        <v>12.08886723035368</v>
+        <v>12.08029239416503</v>
       </c>
       <c r="P10" t="n">
-        <v>331.5172839168958</v>
+        <v>331.6166712861483</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29924,28 +30064,28 @@
         <v>0.0432</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.004708088861605887</v>
+        <v>-0.01336283318553256</v>
       </c>
       <c r="J11" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K11" t="n">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L11" t="n">
-        <v>7.009196889895541e-06</v>
+        <v>5.699676625003924e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>10.57201357318194</v>
+        <v>10.5608226834471</v>
       </c>
       <c r="N11" t="n">
-        <v>174.8408683242252</v>
+        <v>174.3374919363941</v>
       </c>
       <c r="O11" t="n">
-        <v>13.22274057539605</v>
+        <v>13.20369235995727</v>
       </c>
       <c r="P11" t="n">
-        <v>322.400170161147</v>
+        <v>322.4850749158254</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30002,28 +30142,28 @@
         <v>0.0454</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03159972393832047</v>
+        <v>0.02123103316172259</v>
       </c>
       <c r="J12" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K12" t="n">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0002941435213774657</v>
+        <v>0.000133924534135299</v>
       </c>
       <c r="M12" t="n">
-        <v>10.85372935902514</v>
+        <v>10.84802432193764</v>
       </c>
       <c r="N12" t="n">
-        <v>186.325063861918</v>
+        <v>185.9860095101297</v>
       </c>
       <c r="O12" t="n">
-        <v>13.6500939140329</v>
+        <v>13.6376687710961</v>
       </c>
       <c r="P12" t="n">
-        <v>316.284458770148</v>
+        <v>316.3866523804061</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30080,28 +30220,28 @@
         <v>0.0454</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.05343674250180341</v>
+        <v>-0.06466180114414571</v>
       </c>
       <c r="J13" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K13" t="n">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0006498744873588702</v>
+        <v>0.0009596092244771315</v>
       </c>
       <c r="M13" t="n">
-        <v>12.27669875378493</v>
+        <v>12.26987614467066</v>
       </c>
       <c r="N13" t="n">
-        <v>245.291092582939</v>
+        <v>244.7133889026464</v>
       </c>
       <c r="O13" t="n">
-        <v>15.6617716936156</v>
+        <v>15.64331770765545</v>
       </c>
       <c r="P13" t="n">
-        <v>316.9822268015162</v>
+        <v>317.0920290318358</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30158,28 +30298,28 @@
         <v>0.0563</v>
       </c>
       <c r="I14" t="n">
-        <v>0.009440087511267488</v>
+        <v>0.004419633503889085</v>
       </c>
       <c r="J14" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K14" t="n">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L14" t="n">
-        <v>2.769827057014229e-05</v>
+        <v>6.132798926028471e-06</v>
       </c>
       <c r="M14" t="n">
-        <v>10.37833425164831</v>
+        <v>10.35385687847748</v>
       </c>
       <c r="N14" t="n">
-        <v>176.6601516583731</v>
+        <v>176.0383322700313</v>
       </c>
       <c r="O14" t="n">
-        <v>13.29135627610565</v>
+        <v>13.26794378455197</v>
       </c>
       <c r="P14" t="n">
-        <v>324.6401641154873</v>
+        <v>324.689853089279</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30236,28 +30376,28 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04321794275156789</v>
+        <v>0.04050570490681922</v>
       </c>
       <c r="J15" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K15" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0005940914171593814</v>
+        <v>0.0005278133987191014</v>
       </c>
       <c r="M15" t="n">
-        <v>10.50037367601225</v>
+        <v>10.46018950718041</v>
       </c>
       <c r="N15" t="n">
-        <v>177.8835364614127</v>
+        <v>177.0271311962996</v>
       </c>
       <c r="O15" t="n">
-        <v>13.33729869431635</v>
+        <v>13.30515430937573</v>
       </c>
       <c r="P15" t="n">
-        <v>334.8137073851513</v>
+        <v>334.8401664973002</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30314,28 +30454,28 @@
         <v>0.09619999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03657566332374314</v>
+        <v>0.03090513059131676</v>
       </c>
       <c r="J16" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K16" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0003691973539226012</v>
+        <v>0.0002664563220552418</v>
       </c>
       <c r="M16" t="n">
-        <v>11.30954894514601</v>
+        <v>11.27874937004857</v>
       </c>
       <c r="N16" t="n">
-        <v>201.4407255606418</v>
+        <v>200.5548168246386</v>
       </c>
       <c r="O16" t="n">
-        <v>14.19298155993454</v>
+        <v>14.16173777559232</v>
       </c>
       <c r="P16" t="n">
-        <v>321.165424422672</v>
+        <v>321.2216300436295</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30392,28 +30532,28 @@
         <v>0.0847</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1519641542585859</v>
+        <v>0.1452697957731782</v>
       </c>
       <c r="J17" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K17" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L17" t="n">
-        <v>0.006263820162954903</v>
+        <v>0.005784909955027007</v>
       </c>
       <c r="M17" t="n">
-        <v>10.88334247376732</v>
+        <v>10.86148074590538</v>
       </c>
       <c r="N17" t="n">
-        <v>200.11384786734</v>
+        <v>199.3709879799928</v>
       </c>
       <c r="O17" t="n">
-        <v>14.14616018102934</v>
+        <v>14.11987917724485</v>
       </c>
       <c r="P17" t="n">
-        <v>307.3938853354989</v>
+        <v>307.4610610386056</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30451,7 +30591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R424"/>
+  <dimension ref="A1:R426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67203,6 +67343,190 @@
         </is>
       </c>
     </row>
+    <row r="425">
+      <c r="A425" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-12 21:53:43+00:00</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>-38.20573509786725,178.3337593128361</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>-38.20644053900816,178.3337903970804</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>-38.20714109141638,178.33390792138633</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>-38.207848916730136,178.33389654872</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>-38.20855217837594,178.33396585991406</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>-38.20923517092148,178.33407924492062</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>-38.209921892599176,178.33404522439756</t>
+        </is>
+      </c>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>-38.210627766303915,178.33404501181235</t>
+        </is>
+      </c>
+      <c r="J425" t="inlineStr">
+        <is>
+          <t>-38.21132818070649,178.33389167819377</t>
+        </is>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>-38.2120159398526,178.33367365218032</t>
+        </is>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>-38.212679223659926,178.33351525120673</t>
+        </is>
+      </c>
+      <c r="M425" t="inlineStr">
+        <is>
+          <t>-38.213336622939785,178.33325732842493</t>
+        </is>
+      </c>
+      <c r="N425" t="inlineStr">
+        <is>
+          <t>-38.214057035269995,178.33326196089516</t>
+        </is>
+      </c>
+      <c r="O425" t="inlineStr">
+        <is>
+          <t>-38.21480104778558,178.33316066700814</t>
+        </is>
+      </c>
+      <c r="P425" t="inlineStr">
+        <is>
+          <t>-38.21558036832563,178.3331030257577</t>
+        </is>
+      </c>
+      <c r="Q425" t="inlineStr">
+        <is>
+          <t>-38.21629733008566,178.33331129238377</t>
+        </is>
+      </c>
+      <c r="R425" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:54:11+00:00</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>-38.20573704336155,178.33372486487042</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>-38.20644428439203,178.33372407937262</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>-38.20714657282345,178.33381086613673</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>-38.20784736375659,178.3339240459042</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>-38.20855387372019,178.33393584203918</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>-38.209235457574025,178.3340514260882</t>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>-38.20992055341937,178.3340085818767</t>
+        </is>
+      </c>
+      <c r="I426" t="inlineStr">
+        <is>
+          <t>-38.21062224338467,178.33389690241236</t>
+        </is>
+      </c>
+      <c r="J426" t="inlineStr">
+        <is>
+          <t>-38.21132609301006,178.3338356916114</t>
+        </is>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>-38.2120150533982,178.33365842803548</t>
+        </is>
+      </c>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>-38.212668923589675,178.3334287377433</t>
+        </is>
+      </c>
+      <c r="M426" t="inlineStr">
+        <is>
+          <t>-38.213330503207125,178.3332189137886</t>
+        </is>
+      </c>
+      <c r="N426" t="inlineStr">
+        <is>
+          <t>-38.2140379290024,178.33314202561738</t>
+        </is>
+      </c>
+      <c r="O426" t="inlineStr">
+        <is>
+          <t>-38.214801393273255,178.33309816091787</t>
+        </is>
+      </c>
+      <c r="P426" t="inlineStr">
+        <is>
+          <t>-38.21557723622901,178.33311652414312</t>
+        </is>
+      </c>
+      <c r="Q426" t="inlineStr">
+        <is>
+          <t>-38.216321169742955,178.33322877383497</t>
+        </is>
+      </c>
+      <c r="R426" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0249/nzd0249.xlsx
+++ b/data/nzd0249/nzd0249.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R426"/>
+  <dimension ref="A1:R428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24896,6 +24896,106 @@
         </is>
       </c>
     </row>
+    <row r="427">
+      <c r="A427" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-29 21:53:57+00:00</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr"/>
+      <c r="C427" t="n">
+        <v>329.84</v>
+      </c>
+      <c r="D427" t="inlineStr"/>
+      <c r="E427" t="inlineStr"/>
+      <c r="F427" t="inlineStr"/>
+      <c r="G427" t="inlineStr"/>
+      <c r="H427" t="inlineStr"/>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
+      <c r="L427" t="inlineStr"/>
+      <c r="M427" t="n">
+        <v>322.77</v>
+      </c>
+      <c r="N427" t="n">
+        <v>334.67</v>
+      </c>
+      <c r="O427" t="n">
+        <v>346.36</v>
+      </c>
+      <c r="P427" t="n">
+        <v>339.84</v>
+      </c>
+      <c r="Q427" t="n">
+        <v>321.81</v>
+      </c>
+      <c r="R427" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-15 21:54:03+00:00</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>312.2309090909091</v>
+      </c>
+      <c r="C428" t="n">
+        <v>313.9633333333333</v>
+      </c>
+      <c r="D428" t="n">
+        <v>321.6609090909091</v>
+      </c>
+      <c r="E428" t="n">
+        <v>328.19</v>
+      </c>
+      <c r="F428" t="n">
+        <v>338.670909090909</v>
+      </c>
+      <c r="G428" t="n">
+        <v>346.3144444444445</v>
+      </c>
+      <c r="H428" t="n">
+        <v>352.78</v>
+      </c>
+      <c r="I428" t="n">
+        <v>353.9885714285714</v>
+      </c>
+      <c r="J428" t="n">
+        <v>352.64</v>
+      </c>
+      <c r="K428" t="n">
+        <v>335.85</v>
+      </c>
+      <c r="L428" t="n">
+        <v>327.01</v>
+      </c>
+      <c r="M428" t="n">
+        <v>333.07</v>
+      </c>
+      <c r="N428" t="n">
+        <v>335.05</v>
+      </c>
+      <c r="O428" t="n">
+        <v>347.6033333333333</v>
+      </c>
+      <c r="P428" t="n">
+        <v>336.06</v>
+      </c>
+      <c r="Q428" t="n">
+        <v>325.3166666666667</v>
+      </c>
+      <c r="R428" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24907,7 +25007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B428"/>
+  <dimension ref="A1:B430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29195,6 +29295,26 @@
       </c>
       <c r="B428" t="n">
         <v>0.57</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>2025-09-29 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>2025-10-15 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>-0.16</v>
       </c>
     </row>
   </sheetData>
@@ -30591,7 +30711,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R426"/>
+  <dimension ref="A1:R428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67527,6 +67647,150 @@
         </is>
       </c>
     </row>
+    <row r="427">
+      <c r="A427" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-29 21:53:57+00:00</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr"/>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>-38.20642706088014,178.33402904226264</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr"/>
+      <c r="E427" t="inlineStr"/>
+      <c r="F427" t="inlineStr"/>
+      <c r="G427" t="inlineStr"/>
+      <c r="H427" t="inlineStr"/>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
+      <c r="L427" t="inlineStr"/>
+      <c r="M427" t="inlineStr">
+        <is>
+          <t>-38.21336643865895,178.33344448817883</t>
+        </is>
+      </c>
+      <c r="N427" t="inlineStr">
+        <is>
+          <t>-38.21407363306911,178.33336615051994</t>
+        </is>
+      </c>
+      <c r="O427" t="inlineStr">
+        <is>
+          <t>-38.21480039890889,178.33327804629425</t>
+        </is>
+      </c>
+      <c r="P427" t="inlineStr">
+        <is>
+          <t>-38.215519831103215,178.33336392144108</t>
+        </is>
+      </c>
+      <c r="Q427" t="inlineStr">
+        <is>
+          <t>-38.21625694471661,178.33345108166387</t>
+        </is>
+      </c>
+      <c r="R427" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-15 21:54:03+00:00</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>-38.20573287409957,178.33379868783842</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>-38.206437249200015,178.33384864757636</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>-38.20713778946609,178.33396638590352</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>-38.20783907256661,178.33407084902032</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>-38.20853781256547,178.33422021637728</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>-38.20923250087502,178.33433833464468</t>
+        </is>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>-38.20993261809595,178.33433870595437</t>
+        </is>
+      </c>
+      <c r="I428" t="inlineStr">
+        <is>
+          <t>-38.2106363827948,178.3342760923885</t>
+        </is>
+      </c>
+      <c r="J428" t="inlineStr">
+        <is>
+          <t>-38.211339093995825,178.33418435601965</t>
+        </is>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>-38.212030162539975,178.33391792019484</t>
+        </is>
+      </c>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>-38.212701084267664,178.33369886707789</t>
+        </is>
+      </c>
+      <c r="M428" t="inlineStr">
+        <is>
+          <t>-38.21338476200732,178.33355950885067</t>
+        </is>
+      </c>
+      <c r="N428" t="inlineStr">
+        <is>
+          <t>-38.21407430907603,178.3333703940424</t>
+        </is>
+      </c>
+      <c r="O428" t="inlineStr">
+        <is>
+          <t>-38.21480032059908,178.33329221079453</t>
+        </is>
+      </c>
+      <c r="P428" t="inlineStr">
+        <is>
+          <t>-38.2155294176796,178.33332260661527</t>
+        </is>
+      </c>
+      <c r="Q428" t="inlineStr">
+        <is>
+          <t>-38.216246106575696,178.33348859651272</t>
+        </is>
+      </c>
+      <c r="R428" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0249/nzd0249.xlsx
+++ b/data/nzd0249/nzd0249.xlsx
@@ -29488,28 +29488,28 @@
         <v>0.0653</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03943146123735349</v>
+        <v>0.03892184937480598</v>
       </c>
       <c r="J2" t="n">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K2" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003968756798770068</v>
+        <v>0.0003891083860051436</v>
       </c>
       <c r="M2" t="n">
-        <v>11.60676989869553</v>
+        <v>11.57716843581236</v>
       </c>
       <c r="N2" t="n">
-        <v>221.7678793344282</v>
+        <v>221.1593009185995</v>
       </c>
       <c r="O2" t="n">
-        <v>14.89187292903173</v>
+        <v>14.87142565185327</v>
       </c>
       <c r="P2" t="n">
-        <v>312.1262206727864</v>
+        <v>312.1312418074432</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29566,28 +29566,28 @@
         <v>0.0682</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08625264984942153</v>
+        <v>0.09495085346933786</v>
       </c>
       <c r="J3" t="n">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K3" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002646112094566555</v>
+        <v>0.003230341086515209</v>
       </c>
       <c r="M3" t="n">
-        <v>9.924685781338075</v>
+        <v>9.914764770909011</v>
       </c>
       <c r="N3" t="n">
-        <v>159.696597123312</v>
+        <v>159.5250849131002</v>
       </c>
       <c r="O3" t="n">
-        <v>12.63711189802923</v>
+        <v>12.63032402249048</v>
       </c>
       <c r="P3" t="n">
-        <v>311.5099437591249</v>
+        <v>311.4249591878622</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29638,28 +29638,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.2299634279451672</v>
+        <v>0.232849808788156</v>
       </c>
       <c r="J4" t="n">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K4" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01954401648294346</v>
+        <v>0.02013671873100731</v>
       </c>
       <c r="M4" t="n">
-        <v>9.321076840781746</v>
+        <v>9.310013122829108</v>
       </c>
       <c r="N4" t="n">
-        <v>144.7112687168852</v>
+        <v>144.4065446278844</v>
       </c>
       <c r="O4" t="n">
-        <v>12.02959969063332</v>
+        <v>12.01692742043008</v>
       </c>
       <c r="P4" t="n">
-        <v>310.2646110947461</v>
+        <v>310.2354401984358</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29716,28 +29716,28 @@
         <v>0.0546</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1511796285029033</v>
+        <v>0.1563620007149535</v>
       </c>
       <c r="J5" t="n">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K5" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007560469938957093</v>
+        <v>0.008119116431665963</v>
       </c>
       <c r="M5" t="n">
-        <v>10.03290769250761</v>
+        <v>10.02987732748367</v>
       </c>
       <c r="N5" t="n">
-        <v>164.6286550934537</v>
+        <v>164.4532752072082</v>
       </c>
       <c r="O5" t="n">
-        <v>12.83076985583693</v>
+        <v>12.82393368694677</v>
       </c>
       <c r="P5" t="n">
-        <v>314.3691544999127</v>
+        <v>314.3170824741897</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29794,28 +29794,28 @@
         <v>0.0602</v>
       </c>
       <c r="I6" t="n">
-        <v>0.167059449289692</v>
+        <v>0.1740372174270965</v>
       </c>
       <c r="J6" t="n">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K6" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L6" t="n">
-        <v>0.008807915126692323</v>
+        <v>0.009583284264988445</v>
       </c>
       <c r="M6" t="n">
-        <v>10.15802821946838</v>
+        <v>10.16305835263059</v>
       </c>
       <c r="N6" t="n">
-        <v>175.3066153076209</v>
+        <v>175.3200669990753</v>
       </c>
       <c r="O6" t="n">
-        <v>13.24034045285924</v>
+        <v>13.24084842444302</v>
       </c>
       <c r="P6" t="n">
-        <v>320.7986131972374</v>
+        <v>320.7296889998061</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29872,28 +29872,28 @@
         <v>0.0495</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3350470343820176</v>
+        <v>0.3416807154977529</v>
       </c>
       <c r="J7" t="n">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K7" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03716818099011665</v>
+        <v>0.0387159278264676</v>
       </c>
       <c r="M7" t="n">
-        <v>9.920315968265955</v>
+        <v>9.927202831469293</v>
       </c>
       <c r="N7" t="n">
-        <v>163.2221218621478</v>
+        <v>163.2302515989128</v>
       </c>
       <c r="O7" t="n">
-        <v>12.77584133676322</v>
+        <v>12.77615950115342</v>
       </c>
       <c r="P7" t="n">
-        <v>324.5839120175561</v>
+        <v>324.5180652787536</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29950,28 +29950,28 @@
         <v>0.0528</v>
       </c>
       <c r="I8" t="n">
-        <v>0.288960638819762</v>
+        <v>0.2953715617281726</v>
       </c>
       <c r="J8" t="n">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K8" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02863524715866539</v>
+        <v>0.02998000719687111</v>
       </c>
       <c r="M8" t="n">
-        <v>9.754745761129982</v>
+        <v>9.759919560959375</v>
       </c>
       <c r="N8" t="n">
-        <v>155.9886142984142</v>
+        <v>155.9806141789765</v>
       </c>
       <c r="O8" t="n">
-        <v>12.48954019563628</v>
+        <v>12.48921991875299</v>
       </c>
       <c r="P8" t="n">
-        <v>332.7963903151368</v>
+        <v>332.7322446785406</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30028,28 +30028,28 @@
         <v>0.0373</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1353676580510213</v>
+        <v>0.1431262868529368</v>
       </c>
       <c r="J9" t="n">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K9" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005907876599846928</v>
+        <v>0.006616095409052836</v>
       </c>
       <c r="M9" t="n">
-        <v>10.14699355678993</v>
+        <v>10.15754250372171</v>
       </c>
       <c r="N9" t="n">
-        <v>172.5831094369019</v>
+        <v>172.7294483072968</v>
       </c>
       <c r="O9" t="n">
-        <v>13.13708907775623</v>
+        <v>13.14265758160414</v>
       </c>
       <c r="P9" t="n">
-        <v>335.1812923387035</v>
+        <v>335.1046802615451</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30106,28 +30106,28 @@
         <v>0.0436</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1045416856073039</v>
+        <v>0.1138975317574044</v>
       </c>
       <c r="J10" t="n">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K10" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004219030866057349</v>
+        <v>0.005004793162437737</v>
       </c>
       <c r="M10" t="n">
-        <v>9.624477580402319</v>
+        <v>9.643128940900965</v>
       </c>
       <c r="N10" t="n">
-        <v>145.9334643285215</v>
+        <v>146.4033140092784</v>
       </c>
       <c r="O10" t="n">
-        <v>12.08029239416503</v>
+        <v>12.09972371623742</v>
       </c>
       <c r="P10" t="n">
-        <v>331.6166712861483</v>
+        <v>331.5252182375795</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30184,28 +30184,28 @@
         <v>0.0432</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.01336283318553256</v>
+        <v>-0.00642500273607016</v>
       </c>
       <c r="J11" t="n">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K11" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L11" t="n">
-        <v>5.699676625003924e-05</v>
+        <v>1.321894273953461e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>10.5608226834471</v>
+        <v>10.56938399615796</v>
       </c>
       <c r="N11" t="n">
-        <v>174.3374919363941</v>
+        <v>174.3676403354271</v>
       </c>
       <c r="O11" t="n">
-        <v>13.20369235995727</v>
+        <v>13.20483397606449</v>
       </c>
       <c r="P11" t="n">
-        <v>322.4850749158254</v>
+        <v>322.4165623489571</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30262,28 +30262,28 @@
         <v>0.0454</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02123103316172259</v>
+        <v>0.02635185411203648</v>
       </c>
       <c r="J12" t="n">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K12" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L12" t="n">
-        <v>0.000133924534135299</v>
+        <v>0.0002072359542506508</v>
       </c>
       <c r="M12" t="n">
-        <v>10.84802432193764</v>
+        <v>10.8468672253129</v>
       </c>
       <c r="N12" t="n">
-        <v>185.9860095101297</v>
+        <v>185.7749552822055</v>
       </c>
       <c r="O12" t="n">
-        <v>13.6376687710961</v>
+        <v>13.62992866020235</v>
       </c>
       <c r="P12" t="n">
-        <v>316.3866523804061</v>
+        <v>316.335864532758</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30340,28 +30340,28 @@
         <v>0.0454</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.06466180114414571</v>
+        <v>-0.0522771234797761</v>
       </c>
       <c r="J13" t="n">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K13" t="n">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0009596092244771315</v>
+        <v>0.0006322720037985619</v>
       </c>
       <c r="M13" t="n">
-        <v>12.26987614467066</v>
+        <v>12.27232884769653</v>
       </c>
       <c r="N13" t="n">
-        <v>244.7133889026464</v>
+        <v>244.3983678974859</v>
       </c>
       <c r="O13" t="n">
-        <v>15.64331770765545</v>
+        <v>15.63324559704369</v>
       </c>
       <c r="P13" t="n">
-        <v>317.0920290318358</v>
+        <v>316.9701415866771</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30418,28 +30418,28 @@
         <v>0.0563</v>
       </c>
       <c r="I14" t="n">
-        <v>0.004419633503889085</v>
+        <v>0.01461550553157107</v>
       </c>
       <c r="J14" t="n">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K14" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L14" t="n">
-        <v>6.132798926028471e-06</v>
+        <v>6.76541530973962e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>10.35385687847748</v>
+        <v>10.3506264676353</v>
       </c>
       <c r="N14" t="n">
-        <v>176.0383322700313</v>
+        <v>175.6564181436834</v>
       </c>
       <c r="O14" t="n">
-        <v>13.26794378455197</v>
+        <v>13.25354360703896</v>
       </c>
       <c r="P14" t="n">
-        <v>324.689853089279</v>
+        <v>324.5884664048083</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30496,28 +30496,28 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04050570490681922</v>
+        <v>0.0518692371109261</v>
       </c>
       <c r="J15" t="n">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K15" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0005278133987191014</v>
+        <v>0.0008722657082995688</v>
       </c>
       <c r="M15" t="n">
-        <v>10.46018950718041</v>
+        <v>10.46167665525203</v>
       </c>
       <c r="N15" t="n">
-        <v>177.0271311962996</v>
+        <v>176.7359448927922</v>
       </c>
       <c r="O15" t="n">
-        <v>13.30515430937573</v>
+        <v>13.29420719308948</v>
       </c>
       <c r="P15" t="n">
-        <v>334.8401664973002</v>
+        <v>334.7287530212351</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30574,28 +30574,28 @@
         <v>0.09619999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03090513059131676</v>
+        <v>0.04714818651688892</v>
       </c>
       <c r="J16" t="n">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K16" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0002664563220552418</v>
+        <v>0.0006230302906187202</v>
       </c>
       <c r="M16" t="n">
-        <v>11.27874937004857</v>
+        <v>11.30435536778771</v>
       </c>
       <c r="N16" t="n">
-        <v>200.5548168246386</v>
+        <v>200.824198796897</v>
       </c>
       <c r="O16" t="n">
-        <v>14.16173777559232</v>
+        <v>14.1712454920835</v>
       </c>
       <c r="P16" t="n">
-        <v>321.2216300436295</v>
+        <v>321.0596697614325</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30652,28 +30652,28 @@
         <v>0.0847</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1452697957731782</v>
+        <v>0.1579335776783369</v>
       </c>
       <c r="J17" t="n">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K17" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L17" t="n">
-        <v>0.005784909955027007</v>
+        <v>0.00688227123412688</v>
       </c>
       <c r="M17" t="n">
-        <v>10.86148074590538</v>
+        <v>10.86608486265598</v>
       </c>
       <c r="N17" t="n">
-        <v>199.3709879799928</v>
+        <v>199.1272758326755</v>
       </c>
       <c r="O17" t="n">
-        <v>14.11987917724485</v>
+        <v>14.11124643086767</v>
       </c>
       <c r="P17" t="n">
-        <v>307.4610610386056</v>
+        <v>307.3332980521071</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">

--- a/data/nzd0249/nzd0249.xlsx
+++ b/data/nzd0249/nzd0249.xlsx
@@ -29479,13 +29479,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0487</v>
+        <v>0.0563</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0653</v>
+        <v>0.0824</v>
       </c>
       <c r="I2" t="n">
         <v>0.03890581305123032</v>
@@ -29557,13 +29557,13 @@
         <v>0.06680228261814718</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06</v>
+        <v>0.075</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0528</v>
+        <v>0.0664</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0682</v>
+        <v>0.08459999999999999</v>
       </c>
       <c r="I3" t="n">
         <v>0.09497380992776068</v>
@@ -29634,9 +29634,15 @@
       <c r="E4" t="n">
         <v>0.1336045652357564</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0482</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.059</v>
+      </c>
       <c r="I4" t="n">
         <v>0.2328196665712568</v>
       </c>
@@ -29707,13 +29713,13 @@
         <v>0.2004068478539036</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0432</v>
+        <v>0.0693</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0546</v>
+        <v>0.0944</v>
       </c>
       <c r="I5" t="n">
         <v>0.1563620007149535</v>
@@ -29785,13 +29791,13 @@
         <v>0.267209130471429</v>
       </c>
       <c r="F6" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G6" t="n">
-        <v>0.048</v>
+        <v>0.0582</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0602</v>
+        <v>0.0727</v>
       </c>
       <c r="I6" t="n">
         <v>0.1740118069082121</v>
@@ -29863,13 +29869,13 @@
         <v>0.3340114130889543</v>
       </c>
       <c r="F7" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0419</v>
+        <v>0.0516</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0495</v>
+        <v>0.0653</v>
       </c>
       <c r="I7" t="n">
         <v>0.3417250520447166</v>
@@ -29941,13 +29947,13 @@
         <v>0.4008063349042852</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G8" t="n">
-        <v>0.045</v>
+        <v>0.0491</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0528</v>
+        <v>0.0597</v>
       </c>
       <c r="I8" t="n">
         <v>0.2953715617281722</v>
@@ -30019,13 +30025,13 @@
         <v>0.4676086175217468</v>
       </c>
       <c r="F9" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0336</v>
+        <v>0.0459</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0373</v>
+        <v>0.0569</v>
       </c>
       <c r="I9" t="n">
         <v>0.1431497552549266</v>
@@ -30097,13 +30103,13 @@
         <v>0.5344109001392084</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0348</v>
+        <v>0.05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0436</v>
+        <v>0.0616</v>
       </c>
       <c r="I10" t="n">
         <v>0.1138975317574044</v>
@@ -30175,13 +30181,13 @@
         <v>0.6012131827568818</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0351</v>
+        <v>0.0486</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0432</v>
+        <v>0.0586</v>
       </c>
       <c r="I11" t="n">
         <v>-0.00642500273607016</v>
@@ -30253,13 +30259,13 @@
         <v>0.6678398435843735</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0386</v>
+        <v>0.0484</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0454</v>
+        <v>0.0634</v>
       </c>
       <c r="I12" t="n">
         <v>0.02635185411203648</v>
@@ -30331,13 +30337,13 @@
         <v>0.7346421262022622</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G13" t="n">
-        <v>0.038</v>
+        <v>0.0497</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0454</v>
+        <v>0.0605</v>
       </c>
       <c r="I13" t="n">
         <v>-0.0522771234797761</v>
@@ -30409,13 +30415,13 @@
         <v>0.8014444088207363</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G14" t="n">
-        <v>0.044</v>
+        <v>0.0556</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0563</v>
+        <v>0.0692</v>
       </c>
       <c r="I14" t="n">
         <v>0.01461550553157111</v>
@@ -30487,13 +30493,13 @@
         <v>0.8682466914374352</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0557</v>
+        <v>0.0586</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.07530000000000001</v>
       </c>
       <c r="I15" t="n">
         <v>0.05188967169135755</v>
@@ -30565,13 +30571,13 @@
         <v>0.933197717382148</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06660000000000001</v>
+        <v>0.0644</v>
       </c>
       <c r="H16" t="n">
-        <v>0.09619999999999999</v>
+        <v>0.0862</v>
       </c>
       <c r="I16" t="n">
         <v>0.04714213322517606</v>
@@ -30646,10 +30652,10 @@
         <v>0.075</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0658</v>
+        <v>0.0645</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0847</v>
+        <v>0.0844</v>
       </c>
       <c r="I17" t="n">
         <v>0.1579172413494538</v>
